--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Document\개인 문서\스마트 팩토리 멘토링\2023 멘토링\doc\통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68ABC750-7E99-4333-8753-0BA2EE7DC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB681FD-AC66-4155-9015-D685533194EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -813,22 +824,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>processName:wafer
-processValue:12.34</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/pi/result</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pi/sensor/{id}
-{id} : 1 ~ 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pi/process/{id}
-{id} : 1 ~ 8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -857,6 +853,21 @@
   "msg":"pass",
   "statusCode":200
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/sensor/{id}
+{id} : 0 ~ 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/process/{id}
+{id} : 1 ~ 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>processName:wafer
+processValue:33</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,6 +1341,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1341,6 +1358,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1363,24 +1395,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,9 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2430,15 +2441,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>226695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2453,8 +2464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4926330" y="2560320"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4945380" y="2531745"/>
+          <a:ext cx="2514600" cy="906780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7306,7 +7317,7 @@
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
@@ -7316,12 +7327,12 @@
     <col min="9" max="9" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20.25">
+    <row r="1" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="18.75" customHeight="1">
+    <row r="2" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -7329,7 +7340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -7337,7 +7348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -7345,7 +7356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -7353,7 +7364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -7361,15 +7372,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="20.25">
+    <row r="10" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>114</v>
       </c>
@@ -7377,60 +7388,60 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
     </row>
-    <row r="23" spans="2:6" ht="20.25">
+    <row r="23" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="17.25">
+    <row r="24" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.25">
+    <row r="27" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="20.25">
+    <row r="28" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7439,75 +7450,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="28" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="32" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="28" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="20.25">
+    <row r="37" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="17.25">
+    <row r="38" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="23.25" customHeight="1">
+    <row r="39" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="23.25" customHeight="1">
+    <row r="40" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="9.75" customHeight="1">
+    <row r="41" spans="2:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
     </row>
-    <row r="42" spans="2:6" ht="23.25" customHeight="1">
+    <row r="42" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -7516,143 +7527,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="30" customHeight="1">
-      <c r="B44" s="28" t="s">
+    <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="2:6" ht="30" customHeight="1">
-      <c r="B45" s="28" t="s">
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="47" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B47" s="43" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-    </row>
-    <row r="48" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-    </row>
-    <row r="49" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-    </row>
-    <row r="50" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-    </row>
-    <row r="51" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-    </row>
-    <row r="52" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B52" s="43"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-    </row>
-    <row r="53" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-    </row>
-    <row r="54" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-    </row>
-    <row r="55" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-    </row>
-    <row r="56" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B56" s="43"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-    </row>
-    <row r="57" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-    </row>
-    <row r="58" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-    </row>
-    <row r="59" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-    </row>
-    <row r="60" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+    </row>
+    <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+    </row>
+    <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+    </row>
+    <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+    </row>
+    <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+    </row>
+    <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="29"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+    </row>
+    <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="29"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="29"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+    </row>
+    <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+    </row>
+    <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+    </row>
+    <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="43" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-    </row>
-    <row r="68" spans="2:9" ht="17.25">
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="23.25" customHeight="1">
+    <row r="69" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="23.25" customHeight="1">
+    <row r="70" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="9.75" customHeight="1">
+    <row r="71" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:9" ht="23.25" customHeight="1">
+    <row r="72" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>0</v>
       </c>
@@ -7661,124 +7672,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1">
-      <c r="B75" s="28" t="s">
+    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="F75" s="31" t="s">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B76" s="42" t="s">
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="40"/>
-      <c r="F76" s="41" t="s">
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="F76" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-    </row>
-    <row r="77" spans="2:9" ht="54" customHeight="1">
-      <c r="B77" s="28" t="s">
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="F77" s="31" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="F77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-    </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1">
-      <c r="B78" s="28" t="s">
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="F78" s="41" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.15" customHeight="1">
-      <c r="B79" s="28" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="F79" s="41" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="F79" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-    </row>
-    <row r="80" spans="2:9" ht="51.75" customHeight="1">
-      <c r="B80" s="38" t="s">
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="40"/>
-      <c r="F80" s="31" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+      <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-    </row>
-    <row r="81" spans="2:9" ht="60" customHeight="1">
-      <c r="B81" s="28" t="s">
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+    </row>
+    <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="F81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-    </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1">
-      <c r="B82" s="28" t="s">
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+    </row>
+    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="F82" s="31" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-    </row>
-    <row r="83" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B83" s="28" t="s">
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+    </row>
+    <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="F83" s="31" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-    </row>
-    <row r="85" spans="2:9">
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
         <v>22</v>
       </c>
@@ -7789,7 +7800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="15" t="s">
         <v>58</v>
       </c>
@@ -7800,7 +7811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="15" t="s">
         <v>24</v>
       </c>
@@ -7811,7 +7822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="15" t="s">
         <v>94</v>
       </c>
@@ -7822,7 +7833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="15" t="s">
         <v>110</v>
       </c>
@@ -7833,7 +7844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="15" t="s">
         <v>27</v>
       </c>
@@ -7844,7 +7855,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="15" t="s">
         <v>97</v>
       </c>
@@ -7855,7 +7866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="15" t="s">
         <v>113</v>
       </c>
@@ -7866,7 +7877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="15" t="s">
         <v>63</v>
       </c>
@@ -7877,7 +7888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="15" t="s">
         <v>111</v>
       </c>
@@ -7888,71 +7899,71 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="17.45" customHeight="1">
-      <c r="B97" s="43" t="s">
+    <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-    </row>
-    <row r="102" spans="2:4" ht="17.45" customHeight="1">
-      <c r="B102" s="31" t="s">
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+    </row>
+    <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-    </row>
-    <row r="109" spans="2:4" ht="17.25">
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+    </row>
+    <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
@@ -7961,112 +7972,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B113" s="28" t="s">
+    <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="30"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B114" s="28" t="s">
+    <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B115" s="28" t="s">
+    <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="30"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B116" s="28" t="s">
+    <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="30"/>
-      <c r="F116" s="41" t="s">
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="F116" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-    </row>
-    <row r="117" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B117" s="28" t="s">
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+    </row>
+    <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
-      <c r="F117" s="31" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-    </row>
-    <row r="118" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B118" s="28" t="s">
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+    </row>
+    <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="30"/>
-      <c r="F118" s="41" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="F118" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-    </row>
-    <row r="119" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B119" s="28" t="s">
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+    </row>
+    <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
-      <c r="F119" s="41" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="F119" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-    </row>
-    <row r="120" spans="2:9" ht="85.9" customHeight="1">
-      <c r="B120" s="28" t="s">
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+    </row>
+    <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="30"/>
-      <c r="F120" s="31" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="F120" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-    </row>
-    <row r="121" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B121" s="28" t="s">
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+    </row>
+    <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="30"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="16" t="s">
         <v>22</v>
       </c>
@@ -8077,7 +8088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="15" t="s">
         <v>78</v>
       </c>
@@ -8088,7 +8099,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="17" t="s">
         <v>79</v>
       </c>
@@ -8099,7 +8110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="15" t="s">
         <v>24</v>
       </c>
@@ -8110,7 +8121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="15" t="s">
         <v>94</v>
       </c>
@@ -8121,7 +8132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="15" t="s">
         <v>75</v>
       </c>
@@ -8132,7 +8143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="15" t="s">
         <v>27</v>
       </c>
@@ -8143,7 +8154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="15" t="s">
         <v>97</v>
       </c>
@@ -8154,7 +8165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="15" t="s">
         <v>91</v>
       </c>
@@ -8165,7 +8176,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="15" t="s">
         <v>77</v>
       </c>
@@ -8178,22 +8189,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -8208,18 +8215,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8232,11 +8243,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R96" sqref="R96"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="17" max="17" width="17.25" customWidth="1"/>
     <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
@@ -8244,46 +8255,46 @@
     <col min="20" max="20" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="45" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="21"/>
       <c r="D6" s="7"/>
@@ -8294,7 +8305,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="22"/>
       <c r="E7" s="8"/>
@@ -8304,7 +8315,7 @@
       <c r="L7" s="25"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="22"/>
       <c r="E8" s="8"/>
@@ -8314,7 +8325,7 @@
       <c r="L8" s="25"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="22"/>
       <c r="E9" s="8"/>
@@ -8324,7 +8335,7 @@
       <c r="L9" s="25"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="22"/>
       <c r="E10" s="8"/>
@@ -8334,7 +8345,7 @@
       <c r="L10" s="25"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="22"/>
       <c r="E11" s="8"/>
@@ -8343,20 +8354,20 @@
       <c r="I11" s="8"/>
       <c r="L11" s="25"/>
       <c r="M11" s="8"/>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="Q11" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="51" t="s">
+      <c r="R11" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="66">
+    <row r="12" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="22"/>
       <c r="E12" s="8"/>
@@ -8369,16 +8380,16 @@
         <v>121</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>125</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="66">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="22"/>
       <c r="E13" s="8"/>
@@ -8394,13 +8405,13 @@
         <v>127</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="22"/>
       <c r="E14" s="8"/>
@@ -8410,7 +8421,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="22"/>
       <c r="E15" s="8"/>
@@ -8420,7 +8431,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="22"/>
       <c r="E16" s="8"/>
@@ -8430,7 +8441,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="22"/>
       <c r="E17" s="8"/>
@@ -8440,7 +8451,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="22"/>
       <c r="E18" s="8"/>
@@ -8450,7 +8461,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="22"/>
       <c r="E19" s="8"/>
@@ -8460,7 +8471,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="22"/>
       <c r="E20" s="8"/>
@@ -8470,7 +8481,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="22"/>
       <c r="E21" s="8"/>
@@ -8480,7 +8491,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="22"/>
       <c r="E22" s="8"/>
@@ -8490,7 +8501,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="22"/>
       <c r="E23" s="8"/>
@@ -8500,7 +8511,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="22"/>
       <c r="E24" s="8"/>
@@ -8510,7 +8521,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="22"/>
       <c r="E25" s="8"/>
@@ -8520,7 +8531,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="22"/>
       <c r="E26" s="8"/>
@@ -8530,7 +8541,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="22"/>
       <c r="E27" s="8"/>
@@ -8540,7 +8551,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="22"/>
       <c r="E28" s="8"/>
@@ -8550,7 +8561,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="22"/>
       <c r="E29" s="8"/>
@@ -8560,7 +8571,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="22"/>
       <c r="E30" s="8"/>
@@ -8569,20 +8580,20 @@
       <c r="I30" s="8"/>
       <c r="L30" s="25"/>
       <c r="M30" s="8"/>
-      <c r="P30" s="51" t="s">
+      <c r="P30" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="Q30" s="51" t="s">
+      <c r="Q30" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R30" s="51" t="s">
+      <c r="R30" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="51" t="s">
+      <c r="S30" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="66">
+    <row r="31" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="22"/>
       <c r="E31" s="8"/>
@@ -8595,19 +8606,19 @@
         <v>121</v>
       </c>
       <c r="Q31" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="S31" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="T31" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="R31" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="S31" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="T31" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20">
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="22"/>
       <c r="E32" s="8"/>
@@ -8617,7 +8628,7 @@
       <c r="L32" s="25"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="22"/>
       <c r="E33" s="8"/>
@@ -8627,7 +8638,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="22"/>
       <c r="E34" s="8"/>
@@ -8637,7 +8648,7 @@
       <c r="L34" s="25"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="22"/>
       <c r="E35" s="8"/>
@@ -8647,7 +8658,7 @@
       <c r="L35" s="25"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="22"/>
       <c r="E36" s="8"/>
@@ -8657,7 +8668,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="22"/>
       <c r="E37" s="8"/>
@@ -8667,7 +8678,7 @@
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="22"/>
       <c r="E38" s="8"/>
@@ -8677,7 +8688,7 @@
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="22"/>
       <c r="E39" s="8"/>
@@ -8687,7 +8698,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="22"/>
       <c r="E40" s="8"/>
@@ -8697,7 +8708,7 @@
       <c r="L40" s="25"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="22"/>
       <c r="E41" s="8"/>
@@ -8707,7 +8718,7 @@
       <c r="L41" s="25"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="22"/>
       <c r="E42" s="8"/>
@@ -8717,7 +8728,7 @@
       <c r="L42" s="25"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="22"/>
       <c r="E43" s="8"/>
@@ -8727,7 +8738,7 @@
       <c r="L43" s="25"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="22"/>
       <c r="E44" s="8"/>
@@ -8737,7 +8748,7 @@
       <c r="L44" s="25"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="22"/>
       <c r="E45" s="8"/>
@@ -8747,7 +8758,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="22"/>
       <c r="E46" s="8"/>
@@ -8757,7 +8768,7 @@
       <c r="L46" s="25"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="22"/>
       <c r="E47" s="8"/>
@@ -8767,7 +8778,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="22"/>
       <c r="E48" s="8"/>
@@ -8777,7 +8788,7 @@
       <c r="L48" s="25"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="C49" s="22"/>
       <c r="E49" s="8"/>
@@ -8787,7 +8798,7 @@
       <c r="L49" s="25"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="22"/>
       <c r="E50" s="8"/>
@@ -8797,7 +8808,7 @@
       <c r="L50" s="25"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="22"/>
       <c r="E51" s="8"/>
@@ -8807,7 +8818,7 @@
       <c r="L51" s="25"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="22"/>
       <c r="E52" s="8"/>
@@ -8817,7 +8828,7 @@
       <c r="L52" s="25"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="22"/>
       <c r="E53" s="8"/>
@@ -8827,7 +8838,7 @@
       <c r="L53" s="25"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
       <c r="C54" s="22"/>
       <c r="E54" s="8"/>
@@ -8837,7 +8848,7 @@
       <c r="L54" s="25"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="22"/>
       <c r="E55" s="8"/>
@@ -8847,7 +8858,7 @@
       <c r="L55" s="25"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="22"/>
       <c r="E56" s="8"/>
@@ -8857,7 +8868,7 @@
       <c r="L56" s="25"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="22"/>
       <c r="E57" s="8"/>
@@ -8867,7 +8878,7 @@
       <c r="L57" s="25"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="22"/>
       <c r="E58" s="8"/>
@@ -8877,7 +8888,7 @@
       <c r="L58" s="25"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="22"/>
       <c r="E59" s="8"/>
@@ -8887,7 +8898,7 @@
       <c r="L59" s="25"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="22"/>
       <c r="E60" s="8"/>
@@ -8897,7 +8908,7 @@
       <c r="L60" s="25"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="22"/>
       <c r="E61" s="8"/>
@@ -8907,7 +8918,7 @@
       <c r="L61" s="25"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="22"/>
       <c r="E62" s="8"/>
@@ -8917,7 +8928,7 @@
       <c r="L62" s="25"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="22"/>
       <c r="E63" s="8"/>
@@ -8927,7 +8938,7 @@
       <c r="L63" s="25"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="22"/>
       <c r="E64" s="8"/>
@@ -8937,7 +8948,7 @@
       <c r="L64" s="25"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="22"/>
       <c r="E65" s="8"/>
@@ -8947,7 +8958,7 @@
       <c r="L65" s="25"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="22"/>
       <c r="E66" s="8"/>
@@ -8957,7 +8968,7 @@
       <c r="L66" s="25"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="22"/>
       <c r="E67" s="8"/>
@@ -8967,7 +8978,7 @@
       <c r="L67" s="25"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="22"/>
       <c r="E68" s="8"/>
@@ -8977,7 +8988,7 @@
       <c r="L68" s="25"/>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="22"/>
       <c r="E69" s="8"/>
@@ -8987,7 +8998,7 @@
       <c r="L69" s="25"/>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="22"/>
       <c r="E70" s="8"/>
@@ -8997,7 +9008,7 @@
       <c r="L70" s="25"/>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="22"/>
       <c r="E71" s="8"/>
@@ -9007,7 +9018,7 @@
       <c r="L71" s="25"/>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="22"/>
       <c r="E72" s="8"/>
@@ -9017,7 +9028,7 @@
       <c r="L72" s="25"/>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="22"/>
       <c r="E73" s="8"/>
@@ -9027,7 +9038,7 @@
       <c r="L73" s="25"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="22"/>
       <c r="E74" s="8"/>
@@ -9037,7 +9048,7 @@
       <c r="L74" s="25"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="22"/>
       <c r="E75" s="8"/>
@@ -9047,7 +9058,7 @@
       <c r="L75" s="25"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="22"/>
       <c r="E76" s="8"/>
@@ -9057,7 +9068,7 @@
       <c r="L76" s="25"/>
       <c r="M76" s="8"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="22"/>
       <c r="E77" s="8"/>
@@ -9067,7 +9078,7 @@
       <c r="L77" s="25"/>
       <c r="M77" s="8"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="22"/>
       <c r="E78" s="8"/>
@@ -9077,7 +9088,7 @@
       <c r="L78" s="25"/>
       <c r="M78" s="8"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="22"/>
       <c r="E79" s="8"/>
@@ -9087,7 +9098,7 @@
       <c r="L79" s="25"/>
       <c r="M79" s="8"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="22"/>
       <c r="E80" s="8"/>
@@ -9097,7 +9108,7 @@
       <c r="L80" s="25"/>
       <c r="M80" s="8"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="22"/>
       <c r="E81" s="8"/>
@@ -9107,7 +9118,7 @@
       <c r="L81" s="25"/>
       <c r="M81" s="8"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="22"/>
       <c r="E82" s="8"/>
@@ -9117,7 +9128,7 @@
       <c r="L82" s="25"/>
       <c r="M82" s="8"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="22"/>
       <c r="E83" s="8"/>
@@ -9127,7 +9138,7 @@
       <c r="L83" s="25"/>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="22"/>
       <c r="E84" s="8"/>
@@ -9137,7 +9148,7 @@
       <c r="L84" s="25"/>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="22"/>
       <c r="E85" s="8"/>
@@ -9147,7 +9158,7 @@
       <c r="L85" s="25"/>
       <c r="M85" s="8"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="22"/>
       <c r="E86" s="8"/>
@@ -9157,7 +9168,7 @@
       <c r="L86" s="25"/>
       <c r="M86" s="8"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="22"/>
       <c r="E87" s="8"/>
@@ -9167,7 +9178,7 @@
       <c r="L87" s="25"/>
       <c r="M87" s="8"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="22"/>
       <c r="E88" s="8"/>
@@ -9177,7 +9188,7 @@
       <c r="L88" s="25"/>
       <c r="M88" s="8"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="22"/>
       <c r="E89" s="8"/>
@@ -9187,7 +9198,7 @@
       <c r="L89" s="25"/>
       <c r="M89" s="8"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="22"/>
       <c r="E90" s="8"/>
@@ -9197,7 +9208,7 @@
       <c r="L90" s="25"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="22"/>
       <c r="E91" s="8"/>
@@ -9207,7 +9218,7 @@
       <c r="L91" s="25"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="22"/>
       <c r="E92" s="8"/>
@@ -9217,7 +9228,7 @@
       <c r="L92" s="25"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="22"/>
       <c r="E93" s="8"/>
@@ -9227,7 +9238,7 @@
       <c r="L93" s="25"/>
       <c r="M93" s="8"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="22"/>
       <c r="E94" s="8"/>
@@ -9237,7 +9248,7 @@
       <c r="L94" s="25"/>
       <c r="M94" s="8"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="22"/>
       <c r="E95" s="8"/>
@@ -9247,7 +9258,7 @@
       <c r="L95" s="25"/>
       <c r="M95" s="8"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="22"/>
       <c r="E96" s="8"/>
@@ -9257,7 +9268,7 @@
       <c r="L96" s="25"/>
       <c r="M96" s="8"/>
     </row>
-    <row r="97" spans="2:19">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="22"/>
       <c r="E97" s="8"/>
@@ -9267,7 +9278,7 @@
       <c r="L97" s="25"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="2:19">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="22"/>
       <c r="E98" s="8"/>
@@ -9277,7 +9288,7 @@
       <c r="L98" s="25"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="2:19">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="22"/>
       <c r="E99" s="8"/>
@@ -9287,7 +9298,7 @@
       <c r="L99" s="25"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="2:19">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="22"/>
       <c r="E100" s="8"/>
@@ -9297,7 +9308,7 @@
       <c r="L100" s="25"/>
       <c r="M100" s="8"/>
     </row>
-    <row r="101" spans="2:19">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="22"/>
       <c r="E101" s="8"/>
@@ -9307,7 +9318,7 @@
       <c r="L101" s="25"/>
       <c r="M101" s="8"/>
     </row>
-    <row r="102" spans="2:19">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="22"/>
       <c r="E102" s="8"/>
@@ -9317,7 +9328,7 @@
       <c r="L102" s="25"/>
       <c r="M102" s="8"/>
     </row>
-    <row r="103" spans="2:19">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="22"/>
       <c r="E103" s="8"/>
@@ -9326,20 +9337,20 @@
       <c r="I103" s="8"/>
       <c r="L103" s="25"/>
       <c r="M103" s="8"/>
-      <c r="P103" s="51" t="s">
+      <c r="P103" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="Q103" s="51" t="s">
+      <c r="Q103" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R103" s="51" t="s">
+      <c r="R103" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="S103" s="51" t="s">
+      <c r="S103" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="2:19" ht="66">
+    <row r="104" spans="2:19" ht="66" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="22"/>
       <c r="E104" s="8"/>
@@ -9352,13 +9363,13 @@
         <v>126</v>
       </c>
       <c r="Q104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S104" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="22"/>
       <c r="E105" s="8"/>
@@ -9368,7 +9379,7 @@
       <c r="L105" s="25"/>
       <c r="M105" s="8"/>
     </row>
-    <row r="106" spans="2:19">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="22"/>
       <c r="E106" s="8"/>
@@ -9378,7 +9389,7 @@
       <c r="L106" s="25"/>
       <c r="M106" s="8"/>
     </row>
-    <row r="107" spans="2:19">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="22"/>
       <c r="E107" s="8"/>
@@ -9388,7 +9399,7 @@
       <c r="L107" s="25"/>
       <c r="M107" s="8"/>
     </row>
-    <row r="108" spans="2:19">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="22"/>
       <c r="E108" s="8"/>
@@ -9398,7 +9409,7 @@
       <c r="L108" s="25"/>
       <c r="M108" s="8"/>
     </row>
-    <row r="109" spans="2:19">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="22"/>
       <c r="E109" s="8"/>
@@ -9408,7 +9419,7 @@
       <c r="L109" s="25"/>
       <c r="M109" s="8"/>
     </row>
-    <row r="110" spans="2:19">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="22"/>
       <c r="E110" s="8"/>
@@ -9418,7 +9429,7 @@
       <c r="L110" s="25"/>
       <c r="M110" s="8"/>
     </row>
-    <row r="111" spans="2:19">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="22"/>
       <c r="E111" s="8"/>
@@ -9428,7 +9439,7 @@
       <c r="L111" s="25"/>
       <c r="M111" s="8"/>
     </row>
-    <row r="112" spans="2:19">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="22"/>
       <c r="E112" s="8"/>
@@ -9438,7 +9449,7 @@
       <c r="L112" s="25"/>
       <c r="M112" s="8"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="22"/>
       <c r="E113" s="8"/>
@@ -9448,7 +9459,7 @@
       <c r="L113" s="25"/>
       <c r="M113" s="8"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="22"/>
       <c r="E114" s="8"/>
@@ -9458,7 +9469,7 @@
       <c r="L114" s="25"/>
       <c r="M114" s="8"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="22"/>
       <c r="E115" s="8"/>
@@ -9468,7 +9479,7 @@
       <c r="L115" s="25"/>
       <c r="M115" s="8"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="22"/>
       <c r="E116" s="8"/>
@@ -9478,7 +9489,7 @@
       <c r="L116" s="25"/>
       <c r="M116" s="8"/>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="22"/>
       <c r="E117" s="8"/>
@@ -9488,7 +9499,7 @@
       <c r="L117" s="25"/>
       <c r="M117" s="8"/>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="22"/>
       <c r="E118" s="8"/>
@@ -9498,7 +9509,7 @@
       <c r="L118" s="25"/>
       <c r="M118" s="8"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="22"/>
       <c r="E119" s="8"/>
@@ -9508,7 +9519,7 @@
       <c r="L119" s="25"/>
       <c r="M119" s="8"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="22"/>
       <c r="E120" s="8"/>
@@ -9518,7 +9529,7 @@
       <c r="L120" s="25"/>
       <c r="M120" s="8"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="22"/>
       <c r="E121" s="8"/>
@@ -9528,7 +9539,7 @@
       <c r="L121" s="25"/>
       <c r="M121" s="8"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="22"/>
       <c r="E122" s="8"/>
@@ -9538,7 +9549,7 @@
       <c r="L122" s="25"/>
       <c r="M122" s="8"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="22"/>
       <c r="E123" s="8"/>
@@ -9548,7 +9559,7 @@
       <c r="L123" s="25"/>
       <c r="M123" s="8"/>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="22"/>
       <c r="E124" s="8"/>
@@ -9558,7 +9569,7 @@
       <c r="L124" s="25"/>
       <c r="M124" s="8"/>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="22"/>
       <c r="E125" s="8"/>
@@ -9568,7 +9579,7 @@
       <c r="L125" s="25"/>
       <c r="M125" s="8"/>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="22"/>
       <c r="E126" s="8"/>
@@ -9578,7 +9589,7 @@
       <c r="L126" s="25"/>
       <c r="M126" s="8"/>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="22"/>
       <c r="E127" s="8"/>
@@ -9588,7 +9599,7 @@
       <c r="L127" s="25"/>
       <c r="M127" s="8"/>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="22"/>
       <c r="E128" s="8"/>
@@ -9598,7 +9609,7 @@
       <c r="L128" s="25"/>
       <c r="M128" s="8"/>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="22"/>
       <c r="E129" s="8"/>
@@ -9608,7 +9619,7 @@
       <c r="L129" s="25"/>
       <c r="M129" s="8"/>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="22"/>
       <c r="E130" s="8"/>
@@ -9618,7 +9629,7 @@
       <c r="L130" s="25"/>
       <c r="M130" s="8"/>
     </row>
-    <row r="131" spans="2:13">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="22"/>
       <c r="E131" s="8"/>
@@ -9628,7 +9639,7 @@
       <c r="L131" s="25"/>
       <c r="M131" s="8"/>
     </row>
-    <row r="132" spans="2:13">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="22"/>
       <c r="E132" s="8"/>
@@ -9638,7 +9649,7 @@
       <c r="L132" s="25"/>
       <c r="M132" s="8"/>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="22"/>
       <c r="E133" s="8"/>
@@ -9648,7 +9659,7 @@
       <c r="L133" s="25"/>
       <c r="M133" s="8"/>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="22"/>
       <c r="E134" s="8"/>
@@ -9658,7 +9669,7 @@
       <c r="L134" s="25"/>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" spans="2:13">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="22"/>
       <c r="E135" s="8"/>
@@ -9668,7 +9679,7 @@
       <c r="L135" s="25"/>
       <c r="M135" s="8"/>
     </row>
-    <row r="136" spans="2:13">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="22"/>
       <c r="E136" s="8"/>
@@ -9678,7 +9689,7 @@
       <c r="L136" s="25"/>
       <c r="M136" s="8"/>
     </row>
-    <row r="137" spans="2:13">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="22"/>
       <c r="E137" s="8"/>
@@ -9688,7 +9699,7 @@
       <c r="L137" s="25"/>
       <c r="M137" s="8"/>
     </row>
-    <row r="138" spans="2:13">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="22"/>
       <c r="E138" s="8"/>
@@ -9698,7 +9709,7 @@
       <c r="L138" s="25"/>
       <c r="M138" s="8"/>
     </row>
-    <row r="139" spans="2:13">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="22"/>
       <c r="E139" s="8"/>
@@ -9708,7 +9719,7 @@
       <c r="L139" s="25"/>
       <c r="M139" s="8"/>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="22"/>
       <c r="E140" s="8"/>
@@ -9718,7 +9729,7 @@
       <c r="L140" s="25"/>
       <c r="M140" s="8"/>
     </row>
-    <row r="141" spans="2:13">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="22"/>
       <c r="E141" s="8"/>
@@ -9728,7 +9739,7 @@
       <c r="L141" s="25"/>
       <c r="M141" s="8"/>
     </row>
-    <row r="142" spans="2:13">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="22"/>
       <c r="E142" s="8"/>
@@ -9738,7 +9749,7 @@
       <c r="L142" s="25"/>
       <c r="M142" s="8"/>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="22"/>
       <c r="E143" s="8"/>
@@ -9748,7 +9759,7 @@
       <c r="L143" s="25"/>
       <c r="M143" s="8"/>
     </row>
-    <row r="144" spans="2:13">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="22"/>
       <c r="E144" s="8"/>
@@ -9758,7 +9769,7 @@
       <c r="L144" s="25"/>
       <c r="M144" s="8"/>
     </row>
-    <row r="145" spans="2:13">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="22"/>
       <c r="E145" s="8"/>
@@ -9768,7 +9779,7 @@
       <c r="L145" s="25"/>
       <c r="M145" s="8"/>
     </row>
-    <row r="146" spans="2:13">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="22"/>
       <c r="E146" s="8"/>
@@ -9778,7 +9789,7 @@
       <c r="L146" s="25"/>
       <c r="M146" s="8"/>
     </row>
-    <row r="147" spans="2:13">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="22"/>
       <c r="E147" s="8"/>
@@ -9788,7 +9799,7 @@
       <c r="L147" s="25"/>
       <c r="M147" s="8"/>
     </row>
-    <row r="148" spans="2:13">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="22"/>
       <c r="E148" s="8"/>
@@ -9798,7 +9809,7 @@
       <c r="L148" s="25"/>
       <c r="M148" s="8"/>
     </row>
-    <row r="149" spans="2:13">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="22"/>
       <c r="E149" s="8"/>
@@ -9808,7 +9819,7 @@
       <c r="L149" s="25"/>
       <c r="M149" s="8"/>
     </row>
-    <row r="150" spans="2:13">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="10"/>
       <c r="C150" s="23"/>
       <c r="D150" s="11"/>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB681FD-AC66-4155-9015-D685533194EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB3C7F-DE81-4272-9CE6-6FA1B8D4B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -1344,9 +1344,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1358,21 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1394,6 +1376,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,16 +1856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1880,8 +1880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436620" y="4907280"/>
-          <a:ext cx="1363980" cy="398145"/>
+          <a:off x="3427095" y="6145531"/>
+          <a:ext cx="1363980" cy="483870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2257,14 +2257,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>116205</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>573405</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2279,8 +2279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4916805" y="1531620"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4916805" y="1362076"/>
+          <a:ext cx="2514600" cy="428624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2332,35 +2332,14 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>POST/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>시작 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>PI1/START/BODY:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> Sensor on</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>POST</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2377,7 +2356,43 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Route:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>pi/sensor/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>0/{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Detect_Sensor, on}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -2448,8 +2463,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2465,7 +2480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4945380" y="2531745"/>
-          <a:ext cx="2514600" cy="906780"/>
+          <a:ext cx="2514600" cy="421005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2520,9 +2535,59 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:effectLst/>
             </a:rPr>
-            <a:t>ACK:OK</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:t>ACK: ok</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>statusCode:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> 200</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -2783,14 +2848,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2805,8 +2870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="2935605"/>
-          <a:ext cx="1363980" cy="1960245"/>
+          <a:off x="3427095" y="2116455"/>
+          <a:ext cx="1363980" cy="4027170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2947,110 +3012,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A798E77-8BF1-4036-9401-3FC2C2D987D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914900" y="2952750"/>
-          <a:ext cx="2514600" cy="278130"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>GET/1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>PI1/START</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3188,7 +3149,7 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:effectLst/>
             </a:rPr>
-            <a:t>ACK:WAIT</a:t>
+            <a:t>ACK:wait</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
@@ -7039,6 +7000,141 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1967C8E-8E7B-40DD-A84E-68B65414A767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="4105275"/>
+          <a:ext cx="2514600" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>GET</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Route:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>pi/start/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -7451,41 +7547,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -7528,95 +7624,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="29"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -7624,21 +7720,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -7673,121 +7769,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="33" t="s">
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="F75" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="F76" s="34" t="s">
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="F76" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="F77" s="33" t="s">
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
+      <c r="F77" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="F78" s="34" t="s">
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="F78" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="F79" s="34" t="s">
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
+      <c r="F79" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="F80" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
+      <c r="F81" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="F82" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="F83" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -7905,58 +8001,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -7973,106 +8069,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="31"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="31"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="31"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="F116" s="34" t="s">
+      <c r="C116" s="30"/>
+      <c r="D116" s="31"/>
+      <c r="F116" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="F117" s="33" t="s">
+      <c r="C117" s="30"/>
+      <c r="D117" s="31"/>
+      <c r="F117" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="F118" s="34" t="s">
+      <c r="C118" s="30"/>
+      <c r="D118" s="31"/>
+      <c r="F118" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="F119" s="34" t="s">
+      <c r="C119" s="30"/>
+      <c r="D119" s="31"/>
+      <c r="F119" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="F120" s="33" t="s">
+      <c r="C120" s="30"/>
+      <c r="D120" s="31"/>
+      <c r="F120" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="31"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -8189,18 +8285,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -8215,22 +8315,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8243,8 +8339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smartFactoryfinal\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB3C7F-DE81-4272-9CE6-6FA1B8D4B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76536535-B5AD-41BF-8925-64BCC5A2F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>서버</t>
   </si>
@@ -870,12 +870,35 @@
 processValue:33</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>//왼쪽 다이어그램에서는 사용안함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/process/{id}/start
+{id} : 1 ~ 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//수정될 수 있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/process/{id}/end
+{id} : 1 ~ 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>processName:wafer
+processTime:33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +1001,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1256,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1344,6 +1373,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1355,6 +1387,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1377,24 +1424,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,6 +1440,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1806,13 +1838,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1827,7 +1859,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4848225" y="1905000"/>
+          <a:off x="4848225" y="1933575"/>
           <a:ext cx="2705100" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2258,13 +2290,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>116205</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>573405</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2279,8 +2311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4916805" y="1362076"/>
-          <a:ext cx="2514600" cy="428624"/>
+          <a:off x="4916805" y="1266826"/>
+          <a:ext cx="2514600" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,7 +2410,7 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
               <a:effectLst/>
             </a:rPr>
-            <a:t>0/{</a:t>
+            <a:t>0/{"</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
@@ -2390,7 +2422,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Detect_Sensor, on}</a:t>
+            <a:t>sensorName":"detect", "sensorState:"on"}</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
             <a:effectLst/>
@@ -2535,58 +2567,8 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:effectLst/>
             </a:rPr>
-            <a:t>ACK: ok</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>statusCode:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> 200</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+            <a:t>ACK: { "msg":"ok",  "statusCode":2xx}</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:effectLst/>
           </a:endParaRPr>
@@ -2599,14 +2581,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2621,8 +2603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="4895850"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4914900" y="6010275"/>
+          <a:ext cx="2514600" cy="440055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2656,6 +2638,54 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/start</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -2673,24 +2703,33 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
+          <a:br>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:effectLst/>
             </a:rPr>
-            <a:t>GET/1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>PI1/START</a:t>
-          </a:r>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
           </a:endParaRPr>
@@ -2832,10 +2871,44 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-            <a:t>ACK:OK</a:t>
-          </a:r>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
           </a:endParaRPr>
@@ -3149,7 +3222,7 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:effectLst/>
             </a:rPr>
-            <a:t>ACK:wait</a:t>
+            <a:t>ACK: {"msg":"wait", "statusCode":5xx}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
@@ -3168,7 +3241,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>196531</xdr:colOff>
+      <xdr:colOff>63181</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>106021</xdr:rowOff>
     </xdr:to>
@@ -3411,14 +3484,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>87631</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3433,8 +3506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4895850" y="7981950"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4895850" y="9601200"/>
+          <a:ext cx="2514600" cy="544831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3487,42 +3560,55 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-            <a:t>POST/1~3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>PI1 ~</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> PI3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>/P1~P3/BODY:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> start </a:t>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/process/{id}/start</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3662,10 +3748,44 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-            <a:t>ACK:OK</a:t>
-          </a:r>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
           </a:endParaRPr>
@@ -3858,14 +3978,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3880,8 +4000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="11115675"/>
-          <a:ext cx="2562225" cy="278130"/>
+          <a:off x="4886325" y="12525375"/>
+          <a:ext cx="2562225" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3933,13 +4053,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>POST/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3948,10 +4062,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1~3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:t>Post</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3960,56 +4093,36 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PI1 ~</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> PI3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/P1~P3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>/BODY:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> end</a:t>
-          </a:r>
+            <a:t>Route: pi/process/{id}/end</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4022,14 +4135,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4044,7 +4157,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4791075" y="11433810"/>
+          <a:off x="4791075" y="12976860"/>
           <a:ext cx="2743200" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4075,14 +4188,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4097,8 +4210,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436620" y="11774805"/>
-          <a:ext cx="1363980" cy="474345"/>
+          <a:off x="3436620" y="13317855"/>
+          <a:ext cx="1363980" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4193,13 +4306,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4215,7 +4328,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="12172950"/>
+          <a:off x="4838700" y="13849350"/>
           <a:ext cx="2667000" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4246,14 +4359,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4268,8 +4381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="12405360"/>
-          <a:ext cx="1363980" cy="462915"/>
+          <a:off x="7553325" y="14039849"/>
+          <a:ext cx="1363980" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,14 +4437,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4346,7 +4459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="12430125"/>
+          <a:off x="4886325" y="14144625"/>
           <a:ext cx="2514600" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4400,10 +4513,44 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-            <a:t>ACK:OK</a:t>
-          </a:r>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4597,7 +4744,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4606,16 +4753,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Ack: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Pass or Fail </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:t>Ack: {"msg":"pass"/"fail","statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4753,7 +4900,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -4774,8 +4921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4810125" y="12744450"/>
-          <a:ext cx="2695575" cy="400050"/>
+          <a:off x="4810125" y="14487525"/>
+          <a:ext cx="2695575" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4809,6 +4956,54 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/process/{id}/{"processName", "processValue"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -4826,72 +5021,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>POST/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1~3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PI1 ~</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> PI3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>/V1 ~ V3/BODY:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> SensorValue </a:t>
-          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5146,7 +5275,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -5167,8 +5296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4905375" y="16916400"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4905375" y="18669000"/>
+          <a:ext cx="2514600" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5202,6 +5331,54 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/process/4/start</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -5219,36 +5396,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>POST/4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>PI4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>/P4/BODY:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> start </a:t>
-          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5390,10 +5537,44 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-            <a:t>ACK:OK</a:t>
-          </a:r>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5507,15 +5688,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5530,8 +5711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562851" y="18669000"/>
-          <a:ext cx="1352550" cy="1266825"/>
+          <a:off x="7572376" y="20135850"/>
+          <a:ext cx="1352550" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5586,14 +5767,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5608,8 +5789,444 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="20050125"/>
-          <a:ext cx="2695575" cy="278130"/>
+          <a:off x="4838700" y="21250275"/>
+          <a:ext cx="2695575" cy="392430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Post</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/process/4/end</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A13B3E-326B-4192-ACDF-1BF9833374CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="21682710"/>
+          <a:ext cx="2743200" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490ABDB6-25CD-4D51-83B7-987492F3FC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3446145" y="22023705"/>
+          <a:ext cx="1363980" cy="474345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>소요시간 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>저장</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB2238E-38DA-4F86-BA38-DCE9C313E879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="22421850"/>
+          <a:ext cx="2667000" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F8E7C4-6EBE-4C31-BE16-F6F8AC384A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="22669500"/>
+          <a:ext cx="1363980" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>각 공정 센서값 추출</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABECC30-2338-45D6-AFCD-2465728C7235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="22698075"/>
+          <a:ext cx="2514600" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5661,13 +6278,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>POST/4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5676,58 +6287,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PI4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>P4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>/BODY:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> end</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5737,22 +6306,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
+        <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A13B3E-326B-4192-ACDF-1BF9833374CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C2D6CA-D755-4B6E-94A9-C3A8B07EE03C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5760,8 +6329,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4800600" y="20368260"/>
-          <a:ext cx="2743200" cy="310515"/>
+          <a:off x="4819650" y="23983950"/>
+          <a:ext cx="2657475" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5789,141 +6358,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17145</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="직사각형 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490ABDB6-25CD-4D51-83B7-987492F3FC0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3446145" y="20709255"/>
-          <a:ext cx="1363980" cy="474345"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>소요시간 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DB </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>저장</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
+        <xdr:cNvPr id="56" name="직선 화살표 연결선 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB2238E-38DA-4F86-BA38-DCE9C313E879}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB12CB-8ABA-4D5F-B254-48FEEBEEA246}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5931,7 +6382,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="21107400"/>
+          <a:off x="4829175" y="25022175"/>
           <a:ext cx="2667000" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5960,101 +6411,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="직사각형 52">
+        <xdr:cNvPr id="57" name="TextBox 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F8E7C4-6EBE-4C31-BE16-F6F8AC384A4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7562850" y="21339810"/>
-          <a:ext cx="1363980" cy="462915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>각 공정 센서값 추출</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="TextBox 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABECC30-2338-45D6-AFCD-2465728C7235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8889E482-59EE-42A6-8069-FB0B5C33BB6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6062,8 +6435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4895850" y="21364575"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4829175" y="26546175"/>
+          <a:ext cx="2695575" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6116,12 +6489,170 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-            <a:t>ACK:OK</a:t>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ack: {"msg":"Grade=n","statusCode":2xx}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DD6191-02D2-4BF0-9EF7-75AF9E6C369D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="24319230"/>
+          <a:ext cx="1400175" cy="664845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>불량 여부 기준 센서값과 등급 판단 후</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>센서값</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>등급 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>저장 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -6131,128 +6662,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C2D6CA-D755-4B6E-94A9-C3A8B07EE03C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4819650" y="22069425"/>
-          <a:ext cx="2657475" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="직선 화살표 연결선 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB12CB-8ABA-4D5F-B254-48FEEBEEA246}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="22964775"/>
-          <a:ext cx="2667000" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="TextBox 56">
+        <xdr:cNvPr id="59" name="TextBox 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8889E482-59EE-42A6-8069-FB0B5C33BB6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C771525-9477-4D5F-B27B-616CD5471385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6260,8 +6685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="23231475"/>
-          <a:ext cx="2695575" cy="278130"/>
+          <a:off x="4829175" y="23441025"/>
+          <a:ext cx="2695575" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6295,269 +6720,9 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Ack: Grade, Pass or Fail</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>192405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="직사각형 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DD6191-02D2-4BF0-9EF7-75AF9E6C369D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3419475" y="22404705"/>
-          <a:ext cx="1400175" cy="664845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>불량 여부 기준 센서값과 등급 판단 후</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>센서값</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>등급 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DB </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>저장 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C771525-9477-4D5F-B27B-616CD5471385}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="21678900"/>
-          <a:ext cx="2695575" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>POST/4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6566,10 +6731,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6578,22 +6755,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>PI4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>/P4/BODY:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> SensorValue </a:t>
+            <a:t>Route: pi/process/4/{"processName", "processValue"}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -6604,14 +6775,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6626,7 +6797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="23368635"/>
+          <a:off x="7553325" y="25264110"/>
           <a:ext cx="1363980" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6854,14 +7025,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6876,7 +7047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="23844885"/>
+          <a:off x="7553325" y="25740360"/>
           <a:ext cx="1363980" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6932,14 +7103,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6954,7 +7125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="24307800"/>
+          <a:off x="7553325" y="26203275"/>
           <a:ext cx="1363980" cy="461010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7125,17 +7296,8 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>pi/start/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>pi/start</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7413,7 +7575,7 @@
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
@@ -7423,12 +7585,12 @@
     <col min="9" max="9" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="20.25">
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="18.75" customHeight="1">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -7436,7 +7598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -7444,7 +7606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -7452,7 +7614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -7460,7 +7622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -7468,15 +7630,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="20.25">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3">
       <c r="B12" s="13" t="s">
         <v>114</v>
       </c>
@@ -7484,60 +7646,60 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="13"/>
     </row>
-    <row r="23" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="20.25">
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="17.25">
       <c r="B24" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="20.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="20.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7546,75 +7708,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
+    <row r="30" spans="2:6">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="29" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="20.25">
       <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="17.25">
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="23.25" customHeight="1">
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="23.25" customHeight="1">
       <c r="B40" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="9.75" customHeight="1">
       <c r="B41" s="14"/>
     </row>
-    <row r="42" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="23.25" customHeight="1">
       <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -7623,143 +7785,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="29" t="s">
+    <row r="44" spans="2:6" ht="30" customHeight="1">
+      <c r="B44" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="2:6" ht="30" customHeight="1">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-    </row>
-    <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="47" spans="2:6" ht="23.25" customHeight="1">
+      <c r="B47" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-    </row>
-    <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-    </row>
-    <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-    </row>
-    <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="44"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-    </row>
-    <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="44"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-    </row>
-    <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-    </row>
-    <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-    </row>
-    <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-    </row>
-    <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-    </row>
-    <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="44"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-    </row>
-    <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-    </row>
-    <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-    </row>
-    <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-    </row>
-    <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+    </row>
+    <row r="48" spans="2:6" ht="23.25" customHeight="1">
+      <c r="B48" s="29"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+    </row>
+    <row r="49" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B49" s="29"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+    </row>
+    <row r="50" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B50" s="29"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+    </row>
+    <row r="51" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B51" s="29"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+    </row>
+    <row r="52" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B52" s="29"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B53" s="29"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+    </row>
+    <row r="54" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B54" s="29"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B55" s="29"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B56" s="29"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+    </row>
+    <row r="57" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B57" s="29"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+    </row>
+    <row r="58" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B58" s="29"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B59" s="29"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+    </row>
+    <row r="60" spans="2:4" ht="23.25" customHeight="1">
+      <c r="B60" s="29"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="63" spans="2:4">
       <c r="B63" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="44" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-    </row>
-    <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="68" spans="2:9" ht="17.25">
       <c r="B68" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="23.25" customHeight="1">
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="23.25" customHeight="1">
       <c r="B70" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="9.75" customHeight="1">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="23.25" customHeight="1">
       <c r="B72" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9">
       <c r="B74" s="4" t="s">
         <v>0</v>
       </c>
@@ -7768,124 +7930,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
+    <row r="75" spans="2:9" ht="30" customHeight="1">
+      <c r="B75" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="F75" s="32" t="s">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-    </row>
-    <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="43" t="s">
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="2:9" ht="28.9" customHeight="1">
+      <c r="B76" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
-      <c r="F76" s="42" t="s">
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="F76" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-    </row>
-    <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="2:9" ht="54" customHeight="1">
+      <c r="B77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-      <c r="F77" s="32" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="F77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-    </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="29" t="s">
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="2:9" ht="30" customHeight="1">
+      <c r="B78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-      <c r="F78" s="42" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="29" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="2:9" ht="31.15" customHeight="1">
+      <c r="B79" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
-      <c r="F79" s="42" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="F79" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-    </row>
-    <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="39" t="s">
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="2:9" ht="51.75" customHeight="1">
+      <c r="B80" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="41"/>
-      <c r="F80" s="32" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+      <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-    </row>
-    <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="29" t="s">
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+    </row>
+    <row r="81" spans="2:9" ht="60" customHeight="1">
+      <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
-      <c r="F81" s="32" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="F81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-    </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="29" t="s">
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+    </row>
+    <row r="82" spans="2:9" ht="30" customHeight="1">
+      <c r="B82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="F82" s="32" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-    </row>
-    <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="29" t="s">
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+    </row>
+    <row r="83" spans="2:9" ht="27.75" customHeight="1">
+      <c r="B83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
-      <c r="F83" s="32" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" s="16" t="s">
         <v>22</v>
       </c>
@@ -7896,7 +8058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9">
       <c r="B86" s="15" t="s">
         <v>58</v>
       </c>
@@ -7907,7 +8069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9">
       <c r="B87" s="15" t="s">
         <v>24</v>
       </c>
@@ -7918,7 +8080,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9">
       <c r="B88" s="15" t="s">
         <v>94</v>
       </c>
@@ -7929,7 +8091,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9">
       <c r="B89" s="15" t="s">
         <v>110</v>
       </c>
@@ -7940,7 +8102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9">
       <c r="B90" s="15" t="s">
         <v>27</v>
       </c>
@@ -7951,7 +8113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9">
       <c r="B91" s="15" t="s">
         <v>97</v>
       </c>
@@ -7962,7 +8124,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9">
       <c r="B92" s="15" t="s">
         <v>113</v>
       </c>
@@ -7973,7 +8135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9">
       <c r="B93" s="15" t="s">
         <v>63</v>
       </c>
@@ -7984,7 +8146,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9">
       <c r="B94" s="15" t="s">
         <v>111</v>
       </c>
@@ -7995,71 +8157,71 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9">
       <c r="B96" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="44" t="s">
+    <row r="97" spans="2:4" ht="17.45" customHeight="1">
+      <c r="B97" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-    </row>
-    <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="32" t="s">
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+    </row>
+    <row r="102" spans="2:4" ht="17.45" customHeight="1">
+      <c r="B102" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-    </row>
-    <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+    </row>
+    <row r="109" spans="2:4" ht="17.25">
       <c r="B109" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
@@ -8068,112 +8230,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="29" t="s">
+    <row r="113" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B113" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="29" t="s">
+    <row r="114" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B114" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="29" t="s">
+    <row r="115" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B115" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="30"/>
-      <c r="D115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="29" t="s">
+    <row r="116" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B116" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="31"/>
-      <c r="F116" s="42" t="s">
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="F116" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-    </row>
-    <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="29" t="s">
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+    </row>
+    <row r="117" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B117" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="31"/>
-      <c r="F117" s="32" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-    </row>
-    <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="29" t="s">
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+    </row>
+    <row r="118" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B118" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="31"/>
-      <c r="F118" s="42" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="F118" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-    </row>
-    <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="29" t="s">
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+    </row>
+    <row r="119" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B119" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="31"/>
-      <c r="F119" s="42" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="F119" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-    </row>
-    <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="29" t="s">
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+    </row>
+    <row r="120" spans="2:9" ht="85.9" customHeight="1">
+      <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="31"/>
-      <c r="F120" s="32" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="F120" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-    </row>
-    <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="29" t="s">
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+    </row>
+    <row r="121" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B121" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9">
       <c r="B123" s="16" t="s">
         <v>22</v>
       </c>
@@ -8184,7 +8346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9">
       <c r="B124" s="15" t="s">
         <v>78</v>
       </c>
@@ -8195,7 +8357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9">
       <c r="B125" s="17" t="s">
         <v>79</v>
       </c>
@@ -8206,7 +8368,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9">
       <c r="B126" s="15" t="s">
         <v>24</v>
       </c>
@@ -8217,7 +8379,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9">
       <c r="B127" s="15" t="s">
         <v>94</v>
       </c>
@@ -8228,7 +8390,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9">
       <c r="B128" s="15" t="s">
         <v>75</v>
       </c>
@@ -8239,7 +8401,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4">
       <c r="B129" s="15" t="s">
         <v>27</v>
       </c>
@@ -8250,7 +8412,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4">
       <c r="B130" s="15" t="s">
         <v>97</v>
       </c>
@@ -8261,7 +8423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4">
       <c r="B131" s="15" t="s">
         <v>91</v>
       </c>
@@ -8272,7 +8434,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4">
       <c r="B132" s="15" t="s">
         <v>77</v>
       </c>
@@ -8285,22 +8447,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -8315,18 +8473,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8339,24 +8501,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.625" customWidth="1"/>
     <col min="20" max="20" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20">
       <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
@@ -8376,7 +8538,7 @@
       <c r="L4" s="47"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20">
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -8390,7 +8552,7 @@
       <c r="L5" s="50"/>
       <c r="M5" s="51"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20">
       <c r="B6" s="9"/>
       <c r="C6" s="21"/>
       <c r="D6" s="7"/>
@@ -8401,7 +8563,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20">
       <c r="B7" s="9"/>
       <c r="C7" s="22"/>
       <c r="E7" s="8"/>
@@ -8411,7 +8573,7 @@
       <c r="L7" s="25"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20">
       <c r="B8" s="9"/>
       <c r="C8" s="22"/>
       <c r="E8" s="8"/>
@@ -8421,7 +8583,7 @@
       <c r="L8" s="25"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20">
       <c r="B9" s="9"/>
       <c r="C9" s="22"/>
       <c r="E9" s="8"/>
@@ -8431,7 +8593,7 @@
       <c r="L9" s="25"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20">
       <c r="B10" s="9"/>
       <c r="C10" s="22"/>
       <c r="E10" s="8"/>
@@ -8441,7 +8603,7 @@
       <c r="L10" s="25"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20">
       <c r="B11" s="9"/>
       <c r="C11" s="22"/>
       <c r="E11" s="8"/>
@@ -8463,7 +8625,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="66">
       <c r="B12" s="9"/>
       <c r="C12" s="22"/>
       <c r="E12" s="8"/>
@@ -8485,7 +8647,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="66" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="66">
       <c r="B13" s="9"/>
       <c r="C13" s="22"/>
       <c r="E13" s="8"/>
@@ -8507,7 +8669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20">
       <c r="B14" s="9"/>
       <c r="C14" s="22"/>
       <c r="E14" s="8"/>
@@ -8517,7 +8679,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20">
       <c r="B15" s="9"/>
       <c r="C15" s="22"/>
       <c r="E15" s="8"/>
@@ -8527,7 +8689,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20">
       <c r="B16" s="9"/>
       <c r="C16" s="22"/>
       <c r="E16" s="8"/>
@@ -8537,7 +8699,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20">
       <c r="B17" s="9"/>
       <c r="C17" s="22"/>
       <c r="E17" s="8"/>
@@ -8547,7 +8709,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20">
       <c r="B18" s="9"/>
       <c r="C18" s="22"/>
       <c r="E18" s="8"/>
@@ -8557,7 +8719,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20">
       <c r="B19" s="9"/>
       <c r="C19" s="22"/>
       <c r="E19" s="8"/>
@@ -8567,7 +8729,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20">
       <c r="B20" s="9"/>
       <c r="C20" s="22"/>
       <c r="E20" s="8"/>
@@ -8577,7 +8739,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20">
       <c r="B21" s="9"/>
       <c r="C21" s="22"/>
       <c r="E21" s="8"/>
@@ -8587,7 +8749,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20">
       <c r="B22" s="9"/>
       <c r="C22" s="22"/>
       <c r="E22" s="8"/>
@@ -8597,7 +8759,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="9"/>
       <c r="C23" s="22"/>
       <c r="E23" s="8"/>
@@ -8607,7 +8769,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20">
       <c r="B24" s="9"/>
       <c r="C24" s="22"/>
       <c r="E24" s="8"/>
@@ -8617,7 +8779,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="9"/>
       <c r="C25" s="22"/>
       <c r="E25" s="8"/>
@@ -8627,7 +8789,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="9"/>
       <c r="C26" s="22"/>
       <c r="E26" s="8"/>
@@ -8637,7 +8799,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="9"/>
       <c r="C27" s="22"/>
       <c r="E27" s="8"/>
@@ -8647,7 +8809,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="9"/>
       <c r="C28" s="22"/>
       <c r="E28" s="8"/>
@@ -8657,7 +8819,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20">
       <c r="B29" s="9"/>
       <c r="C29" s="22"/>
       <c r="E29" s="8"/>
@@ -8667,7 +8829,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20">
       <c r="B30" s="9"/>
       <c r="C30" s="22"/>
       <c r="E30" s="8"/>
@@ -8689,7 +8851,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" ht="66">
       <c r="B31" s="9"/>
       <c r="C31" s="22"/>
       <c r="E31" s="8"/>
@@ -8714,7 +8876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20">
       <c r="B32" s="9"/>
       <c r="C32" s="22"/>
       <c r="E32" s="8"/>
@@ -8724,7 +8886,7 @@
       <c r="L32" s="25"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="B33" s="9"/>
       <c r="C33" s="22"/>
       <c r="E33" s="8"/>
@@ -8733,8 +8895,11 @@
       <c r="I33" s="8"/>
       <c r="L33" s="25"/>
       <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="66">
       <c r="B34" s="9"/>
       <c r="C34" s="22"/>
       <c r="E34" s="8"/>
@@ -8743,8 +8908,20 @@
       <c r="I34" s="8"/>
       <c r="L34" s="25"/>
       <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="66">
       <c r="B35" s="9"/>
       <c r="C35" s="22"/>
       <c r="E35" s="8"/>
@@ -8753,8 +8930,20 @@
       <c r="I35" s="8"/>
       <c r="L35" s="25"/>
       <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="S35" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36" s="9"/>
       <c r="C36" s="22"/>
       <c r="E36" s="8"/>
@@ -8764,7 +8953,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19">
       <c r="B37" s="9"/>
       <c r="C37" s="22"/>
       <c r="E37" s="8"/>
@@ -8773,8 +8962,9 @@
       <c r="I37" s="8"/>
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P37" s="52"/>
+    </row>
+    <row r="38" spans="2:19">
       <c r="B38" s="9"/>
       <c r="C38" s="22"/>
       <c r="E38" s="8"/>
@@ -8783,8 +8973,9 @@
       <c r="I38" s="8"/>
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P38" s="52"/>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39" s="9"/>
       <c r="C39" s="22"/>
       <c r="E39" s="8"/>
@@ -8794,7 +8985,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="9"/>
       <c r="C40" s="22"/>
       <c r="E40" s="8"/>
@@ -8804,7 +8995,7 @@
       <c r="L40" s="25"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="9"/>
       <c r="C41" s="22"/>
       <c r="E41" s="8"/>
@@ -8814,7 +9005,7 @@
       <c r="L41" s="25"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="9"/>
       <c r="C42" s="22"/>
       <c r="E42" s="8"/>
@@ -8824,7 +9015,7 @@
       <c r="L42" s="25"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="9"/>
       <c r="C43" s="22"/>
       <c r="E43" s="8"/>
@@ -8834,7 +9025,7 @@
       <c r="L43" s="25"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="9"/>
       <c r="C44" s="22"/>
       <c r="E44" s="8"/>
@@ -8844,7 +9035,7 @@
       <c r="L44" s="25"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="9"/>
       <c r="C45" s="22"/>
       <c r="E45" s="8"/>
@@ -8854,7 +9045,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="9"/>
       <c r="C46" s="22"/>
       <c r="E46" s="8"/>
@@ -8864,7 +9055,7 @@
       <c r="L46" s="25"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="9"/>
       <c r="C47" s="22"/>
       <c r="E47" s="8"/>
@@ -8874,7 +9065,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="9"/>
       <c r="C48" s="22"/>
       <c r="E48" s="8"/>
@@ -8884,7 +9075,7 @@
       <c r="L48" s="25"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13">
       <c r="B49" s="9"/>
       <c r="C49" s="22"/>
       <c r="E49" s="8"/>
@@ -8894,7 +9085,7 @@
       <c r="L49" s="25"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13">
       <c r="B50" s="9"/>
       <c r="C50" s="22"/>
       <c r="E50" s="8"/>
@@ -8904,7 +9095,7 @@
       <c r="L50" s="25"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13">
       <c r="B51" s="9"/>
       <c r="C51" s="22"/>
       <c r="E51" s="8"/>
@@ -8914,7 +9105,7 @@
       <c r="L51" s="25"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13">
       <c r="B52" s="9"/>
       <c r="C52" s="22"/>
       <c r="E52" s="8"/>
@@ -8924,7 +9115,7 @@
       <c r="L52" s="25"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13">
       <c r="B53" s="9"/>
       <c r="C53" s="22"/>
       <c r="E53" s="8"/>
@@ -8934,7 +9125,7 @@
       <c r="L53" s="25"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13">
       <c r="B54" s="9"/>
       <c r="C54" s="22"/>
       <c r="E54" s="8"/>
@@ -8944,7 +9135,7 @@
       <c r="L54" s="25"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13">
       <c r="B55" s="9"/>
       <c r="C55" s="22"/>
       <c r="E55" s="8"/>
@@ -8954,7 +9145,7 @@
       <c r="L55" s="25"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13">
       <c r="B56" s="9"/>
       <c r="C56" s="22"/>
       <c r="E56" s="8"/>
@@ -8964,7 +9155,7 @@
       <c r="L56" s="25"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13">
       <c r="B57" s="9"/>
       <c r="C57" s="22"/>
       <c r="E57" s="8"/>
@@ -8974,7 +9165,7 @@
       <c r="L57" s="25"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13">
       <c r="B58" s="9"/>
       <c r="C58" s="22"/>
       <c r="E58" s="8"/>
@@ -8984,7 +9175,7 @@
       <c r="L58" s="25"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13">
       <c r="B59" s="9"/>
       <c r="C59" s="22"/>
       <c r="E59" s="8"/>
@@ -8994,7 +9185,7 @@
       <c r="L59" s="25"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13">
       <c r="B60" s="9"/>
       <c r="C60" s="22"/>
       <c r="E60" s="8"/>
@@ -9004,7 +9195,7 @@
       <c r="L60" s="25"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13">
       <c r="B61" s="9"/>
       <c r="C61" s="22"/>
       <c r="E61" s="8"/>
@@ -9014,7 +9205,7 @@
       <c r="L61" s="25"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13">
       <c r="B62" s="9"/>
       <c r="C62" s="22"/>
       <c r="E62" s="8"/>
@@ -9024,7 +9215,7 @@
       <c r="L62" s="25"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13">
       <c r="B63" s="9"/>
       <c r="C63" s="22"/>
       <c r="E63" s="8"/>
@@ -9034,7 +9225,7 @@
       <c r="L63" s="25"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13">
       <c r="B64" s="9"/>
       <c r="C64" s="22"/>
       <c r="E64" s="8"/>
@@ -9044,7 +9235,7 @@
       <c r="L64" s="25"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13">
       <c r="B65" s="9"/>
       <c r="C65" s="22"/>
       <c r="E65" s="8"/>
@@ -9054,7 +9245,7 @@
       <c r="L65" s="25"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13">
       <c r="B66" s="9"/>
       <c r="C66" s="22"/>
       <c r="E66" s="8"/>
@@ -9064,7 +9255,7 @@
       <c r="L66" s="25"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13">
       <c r="B67" s="9"/>
       <c r="C67" s="22"/>
       <c r="E67" s="8"/>
@@ -9074,7 +9265,7 @@
       <c r="L67" s="25"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13">
       <c r="B68" s="9"/>
       <c r="C68" s="22"/>
       <c r="E68" s="8"/>
@@ -9084,7 +9275,7 @@
       <c r="L68" s="25"/>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13">
       <c r="B69" s="9"/>
       <c r="C69" s="22"/>
       <c r="E69" s="8"/>
@@ -9094,7 +9285,7 @@
       <c r="L69" s="25"/>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13">
       <c r="B70" s="9"/>
       <c r="C70" s="22"/>
       <c r="E70" s="8"/>
@@ -9104,7 +9295,7 @@
       <c r="L70" s="25"/>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13">
       <c r="B71" s="9"/>
       <c r="C71" s="22"/>
       <c r="E71" s="8"/>
@@ -9114,7 +9305,7 @@
       <c r="L71" s="25"/>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13">
       <c r="B72" s="9"/>
       <c r="C72" s="22"/>
       <c r="E72" s="8"/>
@@ -9124,7 +9315,7 @@
       <c r="L72" s="25"/>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13">
       <c r="B73" s="9"/>
       <c r="C73" s="22"/>
       <c r="E73" s="8"/>
@@ -9134,7 +9325,7 @@
       <c r="L73" s="25"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13">
       <c r="B74" s="9"/>
       <c r="C74" s="22"/>
       <c r="E74" s="8"/>
@@ -9144,7 +9335,7 @@
       <c r="L74" s="25"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13">
       <c r="B75" s="9"/>
       <c r="C75" s="22"/>
       <c r="E75" s="8"/>
@@ -9154,7 +9345,7 @@
       <c r="L75" s="25"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13">
       <c r="B76" s="9"/>
       <c r="C76" s="22"/>
       <c r="E76" s="8"/>
@@ -9164,7 +9355,7 @@
       <c r="L76" s="25"/>
       <c r="M76" s="8"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13">
       <c r="B77" s="9"/>
       <c r="C77" s="22"/>
       <c r="E77" s="8"/>
@@ -9174,7 +9365,7 @@
       <c r="L77" s="25"/>
       <c r="M77" s="8"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13">
       <c r="B78" s="9"/>
       <c r="C78" s="22"/>
       <c r="E78" s="8"/>
@@ -9184,7 +9375,7 @@
       <c r="L78" s="25"/>
       <c r="M78" s="8"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13">
       <c r="B79" s="9"/>
       <c r="C79" s="22"/>
       <c r="E79" s="8"/>
@@ -9194,7 +9385,7 @@
       <c r="L79" s="25"/>
       <c r="M79" s="8"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13">
       <c r="B80" s="9"/>
       <c r="C80" s="22"/>
       <c r="E80" s="8"/>
@@ -9204,7 +9395,7 @@
       <c r="L80" s="25"/>
       <c r="M80" s="8"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13">
       <c r="B81" s="9"/>
       <c r="C81" s="22"/>
       <c r="E81" s="8"/>
@@ -9214,7 +9405,7 @@
       <c r="L81" s="25"/>
       <c r="M81" s="8"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13">
       <c r="B82" s="9"/>
       <c r="C82" s="22"/>
       <c r="E82" s="8"/>
@@ -9224,7 +9415,7 @@
       <c r="L82" s="25"/>
       <c r="M82" s="8"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13">
       <c r="B83" s="9"/>
       <c r="C83" s="22"/>
       <c r="E83" s="8"/>
@@ -9234,7 +9425,7 @@
       <c r="L83" s="25"/>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13">
       <c r="B84" s="9"/>
       <c r="C84" s="22"/>
       <c r="E84" s="8"/>
@@ -9244,7 +9435,7 @@
       <c r="L84" s="25"/>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13">
       <c r="B85" s="9"/>
       <c r="C85" s="22"/>
       <c r="E85" s="8"/>
@@ -9254,7 +9445,7 @@
       <c r="L85" s="25"/>
       <c r="M85" s="8"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13">
       <c r="B86" s="9"/>
       <c r="C86" s="22"/>
       <c r="E86" s="8"/>
@@ -9264,7 +9455,7 @@
       <c r="L86" s="25"/>
       <c r="M86" s="8"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13">
       <c r="B87" s="9"/>
       <c r="C87" s="22"/>
       <c r="E87" s="8"/>
@@ -9274,7 +9465,7 @@
       <c r="L87" s="25"/>
       <c r="M87" s="8"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13">
       <c r="B88" s="9"/>
       <c r="C88" s="22"/>
       <c r="E88" s="8"/>
@@ -9284,7 +9475,7 @@
       <c r="L88" s="25"/>
       <c r="M88" s="8"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13">
       <c r="B89" s="9"/>
       <c r="C89" s="22"/>
       <c r="E89" s="8"/>
@@ -9294,7 +9485,7 @@
       <c r="L89" s="25"/>
       <c r="M89" s="8"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13">
       <c r="B90" s="9"/>
       <c r="C90" s="22"/>
       <c r="E90" s="8"/>
@@ -9304,7 +9495,7 @@
       <c r="L90" s="25"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13">
       <c r="B91" s="9"/>
       <c r="C91" s="22"/>
       <c r="E91" s="8"/>
@@ -9314,7 +9505,7 @@
       <c r="L91" s="25"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13">
       <c r="B92" s="9"/>
       <c r="C92" s="22"/>
       <c r="E92" s="8"/>
@@ -9324,7 +9515,7 @@
       <c r="L92" s="25"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13">
       <c r="B93" s="9"/>
       <c r="C93" s="22"/>
       <c r="E93" s="8"/>
@@ -9334,7 +9525,7 @@
       <c r="L93" s="25"/>
       <c r="M93" s="8"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13">
       <c r="B94" s="9"/>
       <c r="C94" s="22"/>
       <c r="E94" s="8"/>
@@ -9344,7 +9535,7 @@
       <c r="L94" s="25"/>
       <c r="M94" s="8"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13">
       <c r="B95" s="9"/>
       <c r="C95" s="22"/>
       <c r="E95" s="8"/>
@@ -9354,7 +9545,7 @@
       <c r="L95" s="25"/>
       <c r="M95" s="8"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13">
       <c r="B96" s="9"/>
       <c r="C96" s="22"/>
       <c r="E96" s="8"/>
@@ -9364,7 +9555,7 @@
       <c r="L96" s="25"/>
       <c r="M96" s="8"/>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:19">
       <c r="B97" s="9"/>
       <c r="C97" s="22"/>
       <c r="E97" s="8"/>
@@ -9374,7 +9565,7 @@
       <c r="L97" s="25"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:19">
       <c r="B98" s="9"/>
       <c r="C98" s="22"/>
       <c r="E98" s="8"/>
@@ -9384,7 +9575,7 @@
       <c r="L98" s="25"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:19">
       <c r="B99" s="9"/>
       <c r="C99" s="22"/>
       <c r="E99" s="8"/>
@@ -9394,7 +9585,7 @@
       <c r="L99" s="25"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:19">
       <c r="B100" s="9"/>
       <c r="C100" s="22"/>
       <c r="E100" s="8"/>
@@ -9404,7 +9595,7 @@
       <c r="L100" s="25"/>
       <c r="M100" s="8"/>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:19">
       <c r="B101" s="9"/>
       <c r="C101" s="22"/>
       <c r="E101" s="8"/>
@@ -9414,7 +9605,7 @@
       <c r="L101" s="25"/>
       <c r="M101" s="8"/>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:19">
       <c r="B102" s="9"/>
       <c r="C102" s="22"/>
       <c r="E102" s="8"/>
@@ -9423,8 +9614,11 @@
       <c r="I102" s="8"/>
       <c r="L102" s="25"/>
       <c r="M102" s="8"/>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19">
       <c r="B103" s="9"/>
       <c r="C103" s="22"/>
       <c r="E103" s="8"/>
@@ -9446,7 +9640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="2:19" ht="66" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:19" ht="66">
       <c r="B104" s="9"/>
       <c r="C104" s="22"/>
       <c r="E104" s="8"/>
@@ -9465,7 +9659,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:19">
       <c r="B105" s="9"/>
       <c r="C105" s="22"/>
       <c r="E105" s="8"/>
@@ -9475,7 +9669,7 @@
       <c r="L105" s="25"/>
       <c r="M105" s="8"/>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:19">
       <c r="B106" s="9"/>
       <c r="C106" s="22"/>
       <c r="E106" s="8"/>
@@ -9485,7 +9679,7 @@
       <c r="L106" s="25"/>
       <c r="M106" s="8"/>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:19">
       <c r="B107" s="9"/>
       <c r="C107" s="22"/>
       <c r="E107" s="8"/>
@@ -9495,7 +9689,7 @@
       <c r="L107" s="25"/>
       <c r="M107" s="8"/>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:19">
       <c r="B108" s="9"/>
       <c r="C108" s="22"/>
       <c r="E108" s="8"/>
@@ -9505,7 +9699,7 @@
       <c r="L108" s="25"/>
       <c r="M108" s="8"/>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:19">
       <c r="B109" s="9"/>
       <c r="C109" s="22"/>
       <c r="E109" s="8"/>
@@ -9515,7 +9709,7 @@
       <c r="L109" s="25"/>
       <c r="M109" s="8"/>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:19">
       <c r="B110" s="9"/>
       <c r="C110" s="22"/>
       <c r="E110" s="8"/>
@@ -9525,7 +9719,7 @@
       <c r="L110" s="25"/>
       <c r="M110" s="8"/>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:19">
       <c r="B111" s="9"/>
       <c r="C111" s="22"/>
       <c r="E111" s="8"/>
@@ -9535,7 +9729,7 @@
       <c r="L111" s="25"/>
       <c r="M111" s="8"/>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:19">
       <c r="B112" s="9"/>
       <c r="C112" s="22"/>
       <c r="E112" s="8"/>
@@ -9545,7 +9739,7 @@
       <c r="L112" s="25"/>
       <c r="M112" s="8"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13">
       <c r="B113" s="9"/>
       <c r="C113" s="22"/>
       <c r="E113" s="8"/>
@@ -9555,7 +9749,7 @@
       <c r="L113" s="25"/>
       <c r="M113" s="8"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13">
       <c r="B114" s="9"/>
       <c r="C114" s="22"/>
       <c r="E114" s="8"/>
@@ -9565,7 +9759,7 @@
       <c r="L114" s="25"/>
       <c r="M114" s="8"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13">
       <c r="B115" s="9"/>
       <c r="C115" s="22"/>
       <c r="E115" s="8"/>
@@ -9575,7 +9769,7 @@
       <c r="L115" s="25"/>
       <c r="M115" s="8"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13">
       <c r="B116" s="9"/>
       <c r="C116" s="22"/>
       <c r="E116" s="8"/>
@@ -9585,7 +9779,7 @@
       <c r="L116" s="25"/>
       <c r="M116" s="8"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13">
       <c r="B117" s="9"/>
       <c r="C117" s="22"/>
       <c r="E117" s="8"/>
@@ -9595,7 +9789,7 @@
       <c r="L117" s="25"/>
       <c r="M117" s="8"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13">
       <c r="B118" s="9"/>
       <c r="C118" s="22"/>
       <c r="E118" s="8"/>
@@ -9605,7 +9799,7 @@
       <c r="L118" s="25"/>
       <c r="M118" s="8"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13">
       <c r="B119" s="9"/>
       <c r="C119" s="22"/>
       <c r="E119" s="8"/>
@@ -9615,7 +9809,7 @@
       <c r="L119" s="25"/>
       <c r="M119" s="8"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13">
       <c r="B120" s="9"/>
       <c r="C120" s="22"/>
       <c r="E120" s="8"/>
@@ -9625,7 +9819,7 @@
       <c r="L120" s="25"/>
       <c r="M120" s="8"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13">
       <c r="B121" s="9"/>
       <c r="C121" s="22"/>
       <c r="E121" s="8"/>
@@ -9635,7 +9829,7 @@
       <c r="L121" s="25"/>
       <c r="M121" s="8"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13">
       <c r="B122" s="9"/>
       <c r="C122" s="22"/>
       <c r="E122" s="8"/>
@@ -9645,7 +9839,7 @@
       <c r="L122" s="25"/>
       <c r="M122" s="8"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13">
       <c r="B123" s="9"/>
       <c r="C123" s="22"/>
       <c r="E123" s="8"/>
@@ -9655,7 +9849,7 @@
       <c r="L123" s="25"/>
       <c r="M123" s="8"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13">
       <c r="B124" s="9"/>
       <c r="C124" s="22"/>
       <c r="E124" s="8"/>
@@ -9665,7 +9859,7 @@
       <c r="L124" s="25"/>
       <c r="M124" s="8"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13">
       <c r="B125" s="9"/>
       <c r="C125" s="22"/>
       <c r="E125" s="8"/>
@@ -9675,7 +9869,7 @@
       <c r="L125" s="25"/>
       <c r="M125" s="8"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13">
       <c r="B126" s="9"/>
       <c r="C126" s="22"/>
       <c r="E126" s="8"/>
@@ -9685,7 +9879,7 @@
       <c r="L126" s="25"/>
       <c r="M126" s="8"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13">
       <c r="B127" s="9"/>
       <c r="C127" s="22"/>
       <c r="E127" s="8"/>
@@ -9695,7 +9889,7 @@
       <c r="L127" s="25"/>
       <c r="M127" s="8"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13">
       <c r="B128" s="9"/>
       <c r="C128" s="22"/>
       <c r="E128" s="8"/>
@@ -9705,7 +9899,7 @@
       <c r="L128" s="25"/>
       <c r="M128" s="8"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13">
       <c r="B129" s="9"/>
       <c r="C129" s="22"/>
       <c r="E129" s="8"/>
@@ -9715,7 +9909,7 @@
       <c r="L129" s="25"/>
       <c r="M129" s="8"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13">
       <c r="B130" s="9"/>
       <c r="C130" s="22"/>
       <c r="E130" s="8"/>
@@ -9725,7 +9919,7 @@
       <c r="L130" s="25"/>
       <c r="M130" s="8"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13">
       <c r="B131" s="9"/>
       <c r="C131" s="22"/>
       <c r="E131" s="8"/>
@@ -9735,7 +9929,7 @@
       <c r="L131" s="25"/>
       <c r="M131" s="8"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13">
       <c r="B132" s="9"/>
       <c r="C132" s="22"/>
       <c r="E132" s="8"/>
@@ -9745,7 +9939,7 @@
       <c r="L132" s="25"/>
       <c r="M132" s="8"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13">
       <c r="B133" s="9"/>
       <c r="C133" s="22"/>
       <c r="E133" s="8"/>
@@ -9755,7 +9949,7 @@
       <c r="L133" s="25"/>
       <c r="M133" s="8"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13">
       <c r="B134" s="9"/>
       <c r="C134" s="22"/>
       <c r="E134" s="8"/>
@@ -9765,7 +9959,7 @@
       <c r="L134" s="25"/>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13">
       <c r="B135" s="9"/>
       <c r="C135" s="22"/>
       <c r="E135" s="8"/>
@@ -9775,7 +9969,7 @@
       <c r="L135" s="25"/>
       <c r="M135" s="8"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13">
       <c r="B136" s="9"/>
       <c r="C136" s="22"/>
       <c r="E136" s="8"/>
@@ -9785,7 +9979,7 @@
       <c r="L136" s="25"/>
       <c r="M136" s="8"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13">
       <c r="B137" s="9"/>
       <c r="C137" s="22"/>
       <c r="E137" s="8"/>
@@ -9795,7 +9989,7 @@
       <c r="L137" s="25"/>
       <c r="M137" s="8"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13">
       <c r="B138" s="9"/>
       <c r="C138" s="22"/>
       <c r="E138" s="8"/>
@@ -9805,7 +9999,7 @@
       <c r="L138" s="25"/>
       <c r="M138" s="8"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13">
       <c r="B139" s="9"/>
       <c r="C139" s="22"/>
       <c r="E139" s="8"/>
@@ -9815,7 +10009,7 @@
       <c r="L139" s="25"/>
       <c r="M139" s="8"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13">
       <c r="B140" s="9"/>
       <c r="C140" s="22"/>
       <c r="E140" s="8"/>
@@ -9825,7 +10019,7 @@
       <c r="L140" s="25"/>
       <c r="M140" s="8"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13">
       <c r="B141" s="9"/>
       <c r="C141" s="22"/>
       <c r="E141" s="8"/>
@@ -9835,7 +10029,7 @@
       <c r="L141" s="25"/>
       <c r="M141" s="8"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13">
       <c r="B142" s="9"/>
       <c r="C142" s="22"/>
       <c r="E142" s="8"/>
@@ -9845,7 +10039,7 @@
       <c r="L142" s="25"/>
       <c r="M142" s="8"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13">
       <c r="B143" s="9"/>
       <c r="C143" s="22"/>
       <c r="E143" s="8"/>
@@ -9855,7 +10049,7 @@
       <c r="L143" s="25"/>
       <c r="M143" s="8"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13">
       <c r="B144" s="9"/>
       <c r="C144" s="22"/>
       <c r="E144" s="8"/>
@@ -9865,7 +10059,7 @@
       <c r="L144" s="25"/>
       <c r="M144" s="8"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13">
       <c r="B145" s="9"/>
       <c r="C145" s="22"/>
       <c r="E145" s="8"/>
@@ -9875,7 +10069,7 @@
       <c r="L145" s="25"/>
       <c r="M145" s="8"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13">
       <c r="B146" s="9"/>
       <c r="C146" s="22"/>
       <c r="E146" s="8"/>
@@ -9885,7 +10079,7 @@
       <c r="L146" s="25"/>
       <c r="M146" s="8"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13">
       <c r="B147" s="9"/>
       <c r="C147" s="22"/>
       <c r="E147" s="8"/>
@@ -9895,7 +10089,7 @@
       <c r="L147" s="25"/>
       <c r="M147" s="8"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13">
       <c r="B148" s="9"/>
       <c r="C148" s="22"/>
       <c r="E148" s="8"/>
@@ -9905,7 +10099,7 @@
       <c r="L148" s="25"/>
       <c r="M148" s="8"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13">
       <c r="B149" s="9"/>
       <c r="C149" s="22"/>
       <c r="E149" s="8"/>
@@ -9915,7 +10109,7 @@
       <c r="L149" s="25"/>
       <c r="M149" s="8"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13">
       <c r="B150" s="10"/>
       <c r="C150" s="23"/>
       <c r="D150" s="11"/>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smartFactoryfinal\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76536535-B5AD-41BF-8925-64BCC5A2F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E5C05-2464-47FD-A682-D741C3D6604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
     <sheet name="프로토콜 흐름도" sheetId="2" r:id="rId2"/>
+    <sheet name="DB 수정안" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="160">
   <si>
     <t>서버</t>
   </si>
@@ -861,36 +862,115 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>//왼쪽 다이어그램에서는 사용안함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>/pi/process/{id}
 {id} : 1 ~ 4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>processName:wafer
-processValue:33</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//왼쪽 다이어그램에서는 사용안함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pi/process/{id}/start
-{id} : 1 ~ 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//수정될 수 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pi/process/{id}/end
-{id} : 1 ~ 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>processName:wafer
-processTime:33</t>
+    <t>processCmd:start
+processName:height
+processValue:0.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>processCmd:end
+processName:height
+processValue:12.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급말고 왼쪽오른쪽으로 알려주고 모터를 조정하게</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-  /pi/sensor/{id} 동작 추가  : 서버 화면전환 (녹색불 점멸?)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 감지 종료시에도 통신을 보내 서버 화면 전환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total history</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>process 1 idx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>process 2 idx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>process 3 idx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>process 4 idx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">process X </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lot id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "msg":"pass",
+  "statusCode":2xx
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1373,8 +1453,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1387,21 +1467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1424,6 +1489,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,9 +1523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2157,15 +2237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2180,8 +2260,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4819650" y="8309610"/>
-          <a:ext cx="2743200" cy="310515"/>
+          <a:off x="4843096" y="10504757"/>
+          <a:ext cx="2751992" cy="229185"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2217,8 +2297,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2233,8 +2313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7551420" y="6261735"/>
-          <a:ext cx="1363980" cy="461010"/>
+          <a:off x="7583658" y="7592304"/>
+          <a:ext cx="1369842" cy="921581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3280,14 +3360,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>205154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3302,8 +3382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7541895" y="6938010"/>
-          <a:ext cx="1384935" cy="462915"/>
+          <a:off x="7571203" y="8660423"/>
+          <a:ext cx="1393727" cy="659423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3373,15 +3453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>674370</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>681697</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>9232</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3396,8 +3476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7532370" y="7547610"/>
-          <a:ext cx="1384935" cy="462915"/>
+          <a:off x="7569005" y="9389597"/>
+          <a:ext cx="1393727" cy="1124538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3470,6 +3550,30 @@
             </a:rPr>
             <a:t>랜덤값 추출</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -3484,14 +3588,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>87631</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3506,8 +3610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4895850" y="9601200"/>
-          <a:ext cx="2514600" cy="544831"/>
+          <a:off x="4916365" y="9942635"/>
+          <a:ext cx="2523393" cy="527539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3599,7 +3703,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Route: pi/process/{id}/start</a:t>
+            <a:t>Route: pi/process/{id}/{processCmd:start, processName:height, processValue:0.0}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:solidFill>
@@ -3619,14 +3723,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>16852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3641,8 +3745,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="9115425"/>
-          <a:ext cx="2667000" cy="209550"/>
+          <a:off x="4868740" y="11219717"/>
+          <a:ext cx="2675793" cy="212481"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3672,14 +3776,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>26378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>94958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3694,8 +3798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4905375" y="9448800"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4925890" y="11441724"/>
+          <a:ext cx="2523393" cy="281061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3798,14 +3902,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>169690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3820,8 +3924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="8622030"/>
-          <a:ext cx="1363980" cy="474345"/>
+          <a:off x="3438818" y="10735113"/>
+          <a:ext cx="1369842" cy="480207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3868,23 +3972,38 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>차 공정 시작 시간</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>변수 저장</a:t>
+            <a:t>시작 시간 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 저장</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
             <a:solidFill>
@@ -3900,14 +4019,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3922,8 +4041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553326" y="9734550"/>
-          <a:ext cx="1352550" cy="1266825"/>
+          <a:off x="7585564" y="11393365"/>
+          <a:ext cx="1355481" cy="1284410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,8 +4080,63 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> 랜덤값 만큼 대기  </a:t>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 랜덤값 만큼 대기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>각 공정 센서값 추출</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -3978,14 +4152,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4000,8 +4174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="12525375"/>
-          <a:ext cx="2562225" cy="411480"/>
+          <a:off x="4906840" y="12118731"/>
+          <a:ext cx="2571018" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4093,7 +4267,67 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Route: pi/process/{id}/end</a:t>
+            <a:t>Route: pi/process/{id}/{processCmd:end,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>processName:height,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>processValue:12.12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:solidFill>
@@ -4105,28 +4339,6 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4135,14 +4347,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4157,8 +4369,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4791075" y="12976860"/>
-          <a:ext cx="2743200" cy="310515"/>
+          <a:off x="4808660" y="12694041"/>
+          <a:ext cx="2754923" cy="316376"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4187,15 +4399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:colOff>293</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>681403</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>205154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4210,8 +4422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436620" y="13317855"/>
-          <a:ext cx="1363980" cy="512445"/>
+          <a:off x="3443947" y="12997962"/>
+          <a:ext cx="1369841" cy="1384788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4258,7 +4470,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>차 공정 </a:t>
+            <a:t>차 공정</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
             <a:solidFill>
@@ -4274,6 +4486,41 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>종료시간 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>저장 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>소요시간 </a:t>
           </a:r>
           <a:r>
@@ -4281,6 +4528,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>DB </a:t>
           </a:r>
@@ -4289,9 +4539,105 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>저장</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>센서값 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>저장 및</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>불량 여부 기준 센서값</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>판</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>단</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -4304,16 +4650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>682868</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>194897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>603738</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>194896</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4328,8 +4674,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="13849350"/>
-          <a:ext cx="2667000" cy="209550"/>
+          <a:off x="4815253" y="14372493"/>
+          <a:ext cx="2675793" cy="212480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4357,94 +4703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41763</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="직사각형 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0ADC30-77FD-4E34-9585-A30101A2DF4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7553325" y="14039849"/>
-          <a:ext cx="1363980" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>각 공정 센서값 추출</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>68140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:colOff>498963</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>136721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4459,8 +4727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="14144625"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4862878" y="14670698"/>
+          <a:ext cx="2523393" cy="281061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4521,7 +4789,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+            <a:t>ACK: {"msg":"pass/fail", "statusCode":2xx}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:solidFill>
@@ -4561,23 +4829,101 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>688730</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>174527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036458A8-EB75-4A26-8A9F-FD89947A465B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7576038" y="14564604"/>
+          <a:ext cx="1366911" cy="468777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>답변에 따라 각 공정 불량 검출 서보모터 작동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>103311</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+        <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941DFE4D-20B3-40DB-865D-44159D2AF5C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE2CEC6-153C-4CF7-82D8-9140AB2085B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,8 +4931,171 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4810125" y="13192125"/>
-          <a:ext cx="2762250" cy="276225"/>
+          <a:off x="4849690" y="19491961"/>
+          <a:ext cx="2754923" cy="313446"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>63889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>197826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947546D6-292C-4DF2-9493-646F095D8E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7571203" y="18278620"/>
+          <a:ext cx="1393727" cy="1196341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차 공정 제조 시간 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>랜덤값 추출</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>182441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>182442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4E65A1-DF47-4253-B30C-858F6E9D6B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4878265" y="20309499"/>
+          <a:ext cx="2675793" cy="212481"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4615,75 +5124,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>93786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91A6BCC-2F04-4E8E-84FD-0692F4519222}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4819650" y="13992225"/>
-          <a:ext cx="2667000" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>192405</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>165296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
+        <xdr:cNvPr id="37" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92479B8-50E0-4260-9DCF-B8514BE459C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A459527B-89CF-49F4-BCB8-99D2A8C34227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4691,8 +5147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="14373225"/>
-          <a:ext cx="2695575" cy="278130"/>
+          <a:off x="4935415" y="20645805"/>
+          <a:ext cx="2523393" cy="283991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4753,245 +5209,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Ack: {"msg":"pass"/"fail","statusCode":2xx}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="직사각형 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE55CCB7-1B38-4918-9B57-5CA70C338340}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3409950" y="13470255"/>
-          <a:ext cx="1400175" cy="474345"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>센서값 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DB </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>저장 및</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>불량 여부 기준 센서값</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>판단</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17EF96B-F874-46EE-90DC-AD49D4C137C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4810125" y="14487525"/>
-          <a:ext cx="2695575" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>POST</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Route: pi/process/{id}/{"processName", "processValue"}</a:t>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:solidFill>
@@ -5031,23 +5249,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>105216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>163391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="직사각형 27">
+        <xdr:cNvPr id="39" name="직사각형 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036458A8-EB75-4A26-8A9F-FD89947A465B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9446635C-B78A-46E9-A987-B2606D9782B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5055,8 +5273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="14262735"/>
-          <a:ext cx="1363980" cy="462915"/>
+          <a:off x="3451274" y="19807312"/>
+          <a:ext cx="1369841" cy="483137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5090,14 +5308,46 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>답변에 따라 각 공정 불량 검출 서보모터 작동</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차 공정 시작 시간</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 저장</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -5109,76 +5359,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE2CEC6-153C-4CF7-82D8-9140AB2085B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4829175" y="17244060"/>
-          <a:ext cx="2743200" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>172916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="직사각형 33">
+        <xdr:cNvPr id="42" name="직사각형 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947546D6-292C-4DF2-9493-646F095D8E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBA8D69-30F2-4686-9F6B-D0A1525275A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5186,8 +5383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7541895" y="16482060"/>
-          <a:ext cx="1384935" cy="462915"/>
+          <a:off x="7604614" y="20512454"/>
+          <a:ext cx="1358412" cy="1534258"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5219,164 +5416,29 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>차 공정 제조 시간 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>랜덤값 추출</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F371876-1469-4D76-8427-3B26C358FB28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4905375" y="18669000"/>
-          <a:ext cx="2514600" cy="411480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>POST</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
+            <a:t> 랜덤값 만큼 대기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Route: pi/process/4/start</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>,</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5396,8 +5458,38 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:effectLst/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>각 공정 센서값 추출</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5407,22 +5499,373 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>688730</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4E65A1-DF47-4253-B30C-858F6E9D6B17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A13B3E-326B-4192-ACDF-1BF9833374CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4821115" y="22043194"/>
+          <a:ext cx="2754923" cy="313446"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490ABDB6-25CD-4D51-83B7-987492F3FC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460799" y="22339788"/>
+          <a:ext cx="1369841" cy="1509347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>종료시간 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>저장 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>소요시간 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>저장</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>센서값 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>저장 및</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>불량 여부 기준 센서값</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>판단</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>등급 판단</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>모터 방향 설정</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB2238E-38DA-4F86-BA38-DCE9C313E879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,8 +5873,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857750" y="18049875"/>
-          <a:ext cx="2667000" cy="209550"/>
+          <a:off x="4868740" y="23834481"/>
+          <a:ext cx="2675793" cy="212481"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5460,22 +5903,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>54220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
+        <xdr:cNvPr id="54" name="TextBox 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A459527B-89CF-49F4-BCB8-99D2A8C34227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABECC30-2338-45D6-AFCD-2465728C7235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5483,8 +5926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="18383250"/>
-          <a:ext cx="2514600" cy="278130"/>
+          <a:off x="4916365" y="24113637"/>
+          <a:ext cx="2523393" cy="317256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5545,7 +5988,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+            <a:t>ACK: {"msg":"left", "statusCode":2xx}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:solidFill>
@@ -5557,51 +6000,29 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>81475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>125291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="직사각형 38">
+        <xdr:cNvPr id="60" name="직사각형 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9446635C-B78A-46E9-A987-B2606D9782B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD33DDC-7451-4EEA-B00F-CB5A0AF42031}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5609,8 +6030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436620" y="17556480"/>
-          <a:ext cx="1363980" cy="474345"/>
+          <a:off x="7585563" y="24033187"/>
+          <a:ext cx="1369842" cy="468777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5644,38 +6065,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>차 공정 시작 시간</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>변수 저장</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:t>등급 판단 서보모터 작동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -5688,22 +6085,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>80597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>122507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="직사각형 41">
+        <xdr:cNvPr id="61" name="직사각형 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBA8D69-30F2-4686-9F6B-D0A1525275A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B198179-827D-4483-94D9-16BB334C0607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5711,8 +6108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572376" y="20135850"/>
-          <a:ext cx="1352550" cy="1447800"/>
+          <a:off x="7595088" y="15108116"/>
+          <a:ext cx="1369842" cy="466872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5746,12 +6143,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 랜덤값 만큼 대기  </a:t>
+            <a:t>컨베이어벨트 구동</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -5765,210 +6162,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>688730</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>120897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>164712</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44">
+        <xdr:cNvPr id="62" name="직사각형 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0BB7DB-7C9B-4A18-88F4-1C09F64F031A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4838700" y="21250275"/>
-          <a:ext cx="2695575" cy="392430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Post</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Route: pi/process/4/end</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A13B3E-326B-4192-ACDF-1BF9833374CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800600" y="21682710"/>
-          <a:ext cx="2743200" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17145</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="직사각형 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490ABDB6-25CD-4D51-83B7-987492F3FC0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B114825-1BA4-4249-A4EE-5B2D4CE23B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5976,8 +6186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3446145" y="22023705"/>
-          <a:ext cx="1363980" cy="474345"/>
+          <a:off x="7576038" y="17485705"/>
+          <a:ext cx="1390797" cy="468776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6011,22 +6221,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>차 공정 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:t>초음파 센서 물체 감지 및</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6035,30 +6237,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>소요시간 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DB </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>저장</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:t>컨베이어벨트 정지</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6070,76 +6256,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB2238E-38DA-4F86-BA38-DCE9C313E879}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848225" y="22421850"/>
-          <a:ext cx="2667000" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>138626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:rowOff>610333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="직사각형 52">
+        <xdr:cNvPr id="68" name="직사각형 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F8E7C4-6EBE-4C31-BE16-F6F8AC384A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C997C1A5-ED09-4358-A839-A9C4633D6D08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6147,8 +6280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="22669500"/>
-          <a:ext cx="1363980" cy="1228725"/>
+          <a:off x="7585563" y="24515299"/>
+          <a:ext cx="1369842" cy="471707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6187,829 +6320,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>각 공정 센서값 추출</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="TextBox 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABECC30-2338-45D6-AFCD-2465728C7235}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4895850" y="22698075"/>
-          <a:ext cx="2514600" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C2D6CA-D755-4B6E-94A9-C3A8B07EE03C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4819650" y="23983950"/>
-          <a:ext cx="2657475" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="직선 화살표 연결선 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB12CB-8ABA-4D5F-B254-48FEEBEEA246}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="25022175"/>
-          <a:ext cx="2667000" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="TextBox 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8889E482-59EE-42A6-8069-FB0B5C33BB6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="26546175"/>
-          <a:ext cx="2695575" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Ack: {"msg":"Grade=n","statusCode":2xx}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="직사각형 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DD6191-02D2-4BF0-9EF7-75AF9E6C369D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3419475" y="24319230"/>
-          <a:ext cx="1400175" cy="664845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>불량 여부 기준 센서값과 등급 판단 후</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>센서값</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>등급 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DB </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>저장 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C771525-9477-4D5F-B27B-616CD5471385}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="23441025"/>
-          <a:ext cx="2695575" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>POST</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Route: pi/process/4/{"processName", "processValue"}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="직사각형 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD33DDC-7451-4EEA-B00F-CB5A0AF42031}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7553325" y="25264110"/>
-          <a:ext cx="1363980" cy="462915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>등급 판단 서보모터 작동</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="직사각형 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B198179-827D-4483-94D9-16BB334C0607}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7562850" y="15087600"/>
-          <a:ext cx="1363980" cy="461010"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>컨베이어벨트 구동</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="직사각형 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B114825-1BA4-4249-A4EE-5B2D4CE23B05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="15763875"/>
-          <a:ext cx="1384935" cy="462915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>초음파 센서 물체 감지 및</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>컨베이어벨트 정지</a:t>
+            <a:t>불량 여부 서보모터 작동</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -7025,92 +6336,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>610333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="직사각형 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C997C1A5-ED09-4358-A839-A9C4633D6D08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7553325" y="25740360"/>
-          <a:ext cx="1363980" cy="462915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>불량 여부 서보모터 작동</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>29455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7125,8 +6358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="26203275"/>
-          <a:ext cx="1363980" cy="461010"/>
+          <a:off x="7585563" y="24987006"/>
+          <a:ext cx="1369842" cy="466872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7298,6 +6531,2352 @@
             </a:rPr>
             <a:t>pi/start</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>215704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>410308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBDFF76-C2BC-4D2D-8039-14E87AAFDF91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4828442" y="8670973"/>
+          <a:ext cx="2754923" cy="194604"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83527</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>462475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4998BE26-3A05-48C5-8CB8-1D6B99C77663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904642" y="8082475"/>
+          <a:ext cx="2523393" cy="553623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/sensor/{id}/{"sensorName":"detect", "sensorState:"on"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>14800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>630115</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="직선 화살표 연결선 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E5EA5F-E593-44B9-AD1B-DC5B5BAA8744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4849690" y="9305338"/>
+          <a:ext cx="2667733" cy="124412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93052</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550252</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6F0C83-0917-4C2A-ADC8-62D5A4BFB6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914167" y="9461401"/>
+          <a:ext cx="2523393" cy="281061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672172</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>380120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>664552</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE6E653-244D-41D7-A94B-029306C2CE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="8835389"/>
+          <a:ext cx="1369842" cy="480207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>물체 감지  화면전환</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>688730</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>172182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="직사각형 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D91E11-968F-487B-FFD0-D6C69E664019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7576038" y="15624663"/>
+          <a:ext cx="1390797" cy="692394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초음파 센서 물체 감지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>물체가 다시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>감지 가 안될 때</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>10546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>205150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="직선 화살표 연결선 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265FFF91-D8A1-07D7-F052-52A51296D47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4828442" y="15675508"/>
+          <a:ext cx="2754923" cy="194604"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83527</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>59491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540727</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>188152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="TextBox 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52889042-B78B-AE8E-8D51-D907D8117CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904642" y="15087010"/>
+          <a:ext cx="2523393" cy="553623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/sensor/{id}/{"sensorName":"detect", "sensorState:"off"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>73412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>630115</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>197824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="직선 화살표 연결선 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F78AF7-911A-91B3-36CC-EFB5E590A384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4849690" y="16375816"/>
+          <a:ext cx="2667733" cy="124412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93052</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>16994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550252</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAADEF8-F3C8-1884-C12D-671FA81F1A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914167" y="16531879"/>
+          <a:ext cx="2523393" cy="281061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672172</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>6444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>664552</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>61689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="직사각형 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F844388A-0FB9-621F-8492-C949131A8C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="15883886"/>
+          <a:ext cx="1369842" cy="480207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>물체 감지  화면전환</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93784</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>71806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550984</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>174383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7718F0B0-5FB2-4542-8907-E8E4673165C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914899" y="18923979"/>
+          <a:ext cx="2523393" cy="527539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/process/4/{processCmd:start, processName:height, processValue:0.0}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>135108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="직선 화살표 연결선 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C242C045-A7B7-3454-685A-6B1B75E6F847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4828442" y="17499916"/>
+          <a:ext cx="2754923" cy="194604"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83527</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540727</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="TextBox 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3598578-F230-341D-EDE0-FBBB8571E80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904642" y="16940726"/>
+          <a:ext cx="2523393" cy="553623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/sensor/{id}/{"sensorName":"detect", "sensorState:"on"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>132031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>630115</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="직선 화살표 연결선 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3116AB71-8024-9B73-2754-5037A58A375E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4849690" y="18134281"/>
+          <a:ext cx="2667733" cy="124412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93052</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>75613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550252</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>144193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="TextBox 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE62F4E-2E13-91FF-5615-F4A234513C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914167" y="18290344"/>
+          <a:ext cx="2523393" cy="281061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672172</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>87044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>664552</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="직사각형 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD67767C-AA37-CD99-D16A-1C40C4E340C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="17664332"/>
+          <a:ext cx="1369842" cy="480207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>물체 감지  화면전환</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503A0A2F-FA32-3A62-C1D9-805C28878224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4906840" y="21453231"/>
+          <a:ext cx="2571018" cy="535305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Post</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/process/{id}/{processCmd:end,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>processName:height,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>processValue:12.12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>688730</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>113567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="직사각형 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B08DEB-83D0-8065-2A6A-E6F41FD4881C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7576038" y="25537990"/>
+          <a:ext cx="1390797" cy="692394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초음파 센서 물체 감지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>물체가 다시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>감지 가 안될 때</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>164412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>146535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="직선 화살표 연결선 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065219BC-A3C9-4EA0-9A44-831EE00B5185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4828442" y="25588835"/>
+          <a:ext cx="2754923" cy="194604"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83527</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>623664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540727</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>129537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2722CFA-183A-707C-2EA0-62A35A94FA09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904642" y="25000337"/>
+          <a:ext cx="2523393" cy="553623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route: pi/sensor/{id}/{"sensorName":"detect", "sensorState:"off"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>14797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>630115</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>139209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="직선 화살표 연결선 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE46E56-584E-BA8D-9B4B-4B7C92BED35C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4849690" y="26289143"/>
+          <a:ext cx="2667733" cy="124412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93052</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>170860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550252</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>26959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B427460-1D00-BD15-849C-258045B30FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914167" y="26445206"/>
+          <a:ext cx="2523393" cy="281061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672172</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>160309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>664552</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>3074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="직사각형 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9376E645-0FB9-B400-C0C9-ABD215D02FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="25797213"/>
+          <a:ext cx="1369842" cy="480207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>물체 감지  화면전환</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7571,7 +9150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -7719,11 +9298,11 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
@@ -7739,11 +9318,11 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -7800,81 +9379,81 @@
       <c r="D45" s="32"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B48" s="29"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B49" s="29"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B50" s="29"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B51" s="29"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B52" s="29"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B53" s="29"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B54" s="29"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B55" s="29"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B56" s="29"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B57" s="29"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B58" s="29"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B59" s="29"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B60" s="29"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="3" t="s">
@@ -7882,21 +9461,21 @@
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="68" spans="2:9" ht="17.25">
       <c r="B68" s="6" t="s">
@@ -7944,17 +9523,17 @@
       <c r="I75" s="33"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="F76" s="34" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="F76" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1">
       <c r="B77" s="30" t="s">
@@ -7975,12 +9554,12 @@
       </c>
       <c r="C78" s="31"/>
       <c r="D78" s="32"/>
-      <c r="F78" s="34" t="s">
+      <c r="F78" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1">
       <c r="B79" s="30" t="s">
@@ -7988,19 +9567,19 @@
       </c>
       <c r="C79" s="31"/>
       <c r="D79" s="32"/>
-      <c r="F79" s="34" t="s">
+      <c r="F79" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1">
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
       <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
@@ -8163,26 +9742,26 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1">
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1">
       <c r="B102" s="33" t="s">
@@ -8266,12 +9845,12 @@
       </c>
       <c r="C116" s="31"/>
       <c r="D116" s="32"/>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1">
       <c r="B117" s="30" t="s">
@@ -8292,12 +9871,12 @@
       </c>
       <c r="C118" s="31"/>
       <c r="D118" s="32"/>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1">
       <c r="B119" s="30" t="s">
@@ -8305,12 +9884,12 @@
       </c>
       <c r="C119" s="31"/>
       <c r="D119" s="32"/>
-      <c r="F119" s="34" t="s">
+      <c r="F119" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1">
       <c r="B120" s="30" t="s">
@@ -8447,18 +10026,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -8473,22 +10056,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8501,8 +10080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8519,38 +10098,38 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="46" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="46" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="9"/>
@@ -8808,6 +10387,9 @@
       <c r="I27" s="8"/>
       <c r="L27" s="25"/>
       <c r="M27" s="8"/>
+      <c r="O27" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="9"/>
@@ -8818,6 +10400,9 @@
       <c r="I28" s="8"/>
       <c r="L28" s="25"/>
       <c r="M28" s="8"/>
+      <c r="O28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="9"/>
@@ -8864,19 +10449,16 @@
         <v>121</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S31" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="T31" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20">
+    </row>
+    <row r="32" spans="2:20" ht="66">
       <c r="B32" s="9"/>
       <c r="C32" s="22"/>
       <c r="E32" s="8"/>
@@ -8885,8 +10467,23 @@
       <c r="I32" s="8"/>
       <c r="L32" s="25"/>
       <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="2:19">
+      <c r="P32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="S32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
       <c r="B33" s="9"/>
       <c r="C33" s="22"/>
       <c r="E33" s="8"/>
@@ -8895,11 +10492,8 @@
       <c r="I33" s="8"/>
       <c r="L33" s="25"/>
       <c r="M33" s="8"/>
-      <c r="P33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" ht="66">
+    </row>
+    <row r="34" spans="2:20">
       <c r="B34" s="9"/>
       <c r="C34" s="22"/>
       <c r="E34" s="8"/>
@@ -8908,20 +10502,11 @@
       <c r="I34" s="8"/>
       <c r="L34" s="25"/>
       <c r="M34" s="8"/>
-      <c r="P34" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" ht="66">
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+    </row>
+    <row r="35" spans="2:20">
       <c r="B35" s="9"/>
       <c r="C35" s="22"/>
       <c r="E35" s="8"/>
@@ -8930,20 +10515,12 @@
       <c r="I35" s="8"/>
       <c r="L35" s="25"/>
       <c r="M35" s="8"/>
-      <c r="P35" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="R35" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="S35" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19">
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+    </row>
+    <row r="36" spans="2:20">
       <c r="B36" s="9"/>
       <c r="C36" s="22"/>
       <c r="E36" s="8"/>
@@ -8953,7 +10530,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:20">
       <c r="B37" s="9"/>
       <c r="C37" s="22"/>
       <c r="E37" s="8"/>
@@ -8962,9 +10539,9 @@
       <c r="I37" s="8"/>
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
-      <c r="P37" s="52"/>
-    </row>
-    <row r="38" spans="2:19">
+      <c r="P37" s="29"/>
+    </row>
+    <row r="38" spans="2:20">
       <c r="B38" s="9"/>
       <c r="C38" s="22"/>
       <c r="E38" s="8"/>
@@ -8973,9 +10550,9 @@
       <c r="I38" s="8"/>
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
-      <c r="P38" s="52"/>
-    </row>
-    <row r="39" spans="2:19">
+      <c r="P38" s="29"/>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39" s="9"/>
       <c r="C39" s="22"/>
       <c r="E39" s="8"/>
@@ -8985,7 +10562,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:20">
       <c r="B40" s="9"/>
       <c r="C40" s="22"/>
       <c r="E40" s="8"/>
@@ -8995,7 +10572,7 @@
       <c r="L40" s="25"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:20">
       <c r="B41" s="9"/>
       <c r="C41" s="22"/>
       <c r="E41" s="8"/>
@@ -9005,7 +10582,7 @@
       <c r="L41" s="25"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:20">
       <c r="B42" s="9"/>
       <c r="C42" s="22"/>
       <c r="E42" s="8"/>
@@ -9015,7 +10592,7 @@
       <c r="L42" s="25"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:20">
       <c r="B43" s="9"/>
       <c r="C43" s="22"/>
       <c r="E43" s="8"/>
@@ -9025,7 +10602,7 @@
       <c r="L43" s="25"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:20">
       <c r="B44" s="9"/>
       <c r="C44" s="22"/>
       <c r="E44" s="8"/>
@@ -9035,7 +10612,7 @@
       <c r="L44" s="25"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:20">
       <c r="B45" s="9"/>
       <c r="C45" s="22"/>
       <c r="E45" s="8"/>
@@ -9045,7 +10622,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:20">
       <c r="B46" s="9"/>
       <c r="C46" s="22"/>
       <c r="E46" s="8"/>
@@ -9055,7 +10632,7 @@
       <c r="L46" s="25"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:20">
       <c r="B47" s="9"/>
       <c r="C47" s="22"/>
       <c r="E47" s="8"/>
@@ -9065,7 +10642,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:20">
       <c r="B48" s="9"/>
       <c r="C48" s="22"/>
       <c r="E48" s="8"/>
@@ -9615,7 +11192,7 @@
       <c r="L102" s="25"/>
       <c r="M102" s="8"/>
       <c r="P102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="2:19">
@@ -9718,6 +11295,9 @@
       <c r="I110" s="8"/>
       <c r="L110" s="25"/>
       <c r="M110" s="8"/>
+      <c r="P110" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="111" spans="2:19">
       <c r="B111" s="9"/>
@@ -10134,4 +11714,150 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CF65EA-B125-49A6-B142-4A0980B4CE52}">
+  <dimension ref="B3:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smartFactoryfinal\doc\통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E5C05-2464-47FD-A682-D741C3D6604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D5A5A6-1C0D-42CD-B286-9955A5C48347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="510" windowWidth="21600" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
   <si>
     <t>서버</t>
   </si>
@@ -973,12 +973,44 @@
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1차 공정 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 공정 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etching</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 공정 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ionImplantation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차 공정 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>metalWiring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,6 +1488,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,6 +1502,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1488,24 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2999,14 +3031,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683895</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9818</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2199</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -3023,8 +3055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="2116455"/>
-          <a:ext cx="1363980" cy="4027170"/>
+          <a:off x="3453472" y="2145763"/>
+          <a:ext cx="1369842" cy="4053547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8243,7 +8275,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Route: pi/process/{id}/{processCmd:end,</a:t>
+            <a:t>Route: pi/process/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/{processCmd:end,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
@@ -8609,7 +8665,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Route: pi/sensor/{id}/{"sensorName":"detect", "sensorState:"off"}</a:t>
+            <a:t>Route: pi/sensor/4/{"sensorName":"detect", "sensorState:"off"}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:solidFill>
@@ -9154,7 +9210,7 @@
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
@@ -9164,12 +9220,12 @@
     <col min="9" max="9" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20.25">
+    <row r="1" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="18.75" customHeight="1">
+    <row r="2" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -9177,7 +9233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -9185,7 +9241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -9193,7 +9249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -9201,7 +9257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -9209,15 +9265,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="20.25">
+    <row r="10" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>114</v>
       </c>
@@ -9225,60 +9281,60 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
     </row>
-    <row r="23" spans="2:6" ht="20.25">
+    <row r="23" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="17.25">
+    <row r="24" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.25">
+    <row r="27" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="20.25">
+    <row r="28" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
@@ -9287,75 +9343,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="30" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="20.25">
+    <row r="37" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="17.25">
+    <row r="38" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="23.25" customHeight="1">
+    <row r="39" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="23.25" customHeight="1">
+    <row r="40" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="9.75" customHeight="1">
+    <row r="41" spans="2:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
     </row>
-    <row r="42" spans="2:6" ht="23.25" customHeight="1">
+    <row r="42" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -9364,143 +9420,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="30" customHeight="1">
-      <c r="B44" s="30" t="s">
+    <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="2:6" ht="30" customHeight="1">
-      <c r="B45" s="30" t="s">
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="47" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B47" s="45" t="s">
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-    </row>
-    <row r="48" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-    </row>
-    <row r="49" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-    </row>
-    <row r="50" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-    </row>
-    <row r="51" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-    </row>
-    <row r="52" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-    </row>
-    <row r="53" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-    </row>
-    <row r="54" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-    </row>
-    <row r="55" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-    </row>
-    <row r="56" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-    </row>
-    <row r="57" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-    </row>
-    <row r="58" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-    </row>
-    <row r="59" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-    </row>
-    <row r="60" spans="2:4" ht="23.25" customHeight="1">
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+    </row>
+    <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+    </row>
+    <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="30"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+    </row>
+    <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="30"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+    </row>
+    <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+    </row>
+    <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="30"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="30"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+    </row>
+    <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="30"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+    </row>
+    <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="30"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+    </row>
+    <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+    </row>
+    <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+    </row>
+    <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+    </row>
+    <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+    </row>
+    <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="30"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="45" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-    </row>
-    <row r="68" spans="2:9" ht="17.25">
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+    </row>
+    <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="23.25" customHeight="1">
+    <row r="69" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="23.25" customHeight="1">
+    <row r="70" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="9.75" customHeight="1">
+    <row r="71" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:9" ht="23.25" customHeight="1">
+    <row r="72" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>0</v>
       </c>
@@ -9509,124 +9565,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1">
-      <c r="B75" s="30" t="s">
+    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="33" t="s">
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="F75" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" spans="2:9" ht="28.9" customHeight="1">
-      <c r="B76" s="44" t="s">
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
-      <c r="F76" s="43" t="s">
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+      <c r="F76" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-    </row>
-    <row r="77" spans="2:9" ht="54" customHeight="1">
-      <c r="B77" s="30" t="s">
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+    </row>
+    <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="F77" s="33" t="s">
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="F77" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1">
-      <c r="B78" s="30" t="s">
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="F78" s="43" t="s">
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="F78" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.15" customHeight="1">
-      <c r="B79" s="30" t="s">
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="F79" s="43" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="F79" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-    </row>
-    <row r="80" spans="2:9" ht="51.75" customHeight="1">
-      <c r="B80" s="40" t="s">
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="F80" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-    </row>
-    <row r="81" spans="2:9" ht="60" customHeight="1">
-      <c r="B81" s="30" t="s">
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+    </row>
+    <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
+      <c r="F81" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-    </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1">
-      <c r="B82" s="30" t="s">
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+    </row>
+    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="F82" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B83" s="30" t="s">
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+    </row>
+    <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="F83" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-    </row>
-    <row r="85" spans="2:9">
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
         <v>22</v>
       </c>
@@ -9637,7 +9693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="15" t="s">
         <v>58</v>
       </c>
@@ -9648,7 +9704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="15" t="s">
         <v>24</v>
       </c>
@@ -9659,7 +9715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="15" t="s">
         <v>94</v>
       </c>
@@ -9670,7 +9726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="15" t="s">
         <v>110</v>
       </c>
@@ -9681,7 +9737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="15" t="s">
         <v>27</v>
       </c>
@@ -9692,7 +9748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="15" t="s">
         <v>97</v>
       </c>
@@ -9703,7 +9759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="15" t="s">
         <v>113</v>
       </c>
@@ -9714,7 +9770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="15" t="s">
         <v>63</v>
       </c>
@@ -9725,7 +9781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="15" t="s">
         <v>111</v>
       </c>
@@ -9736,71 +9792,71 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="17.45" customHeight="1">
-      <c r="B97" s="45" t="s">
+    <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-    </row>
-    <row r="102" spans="2:4" ht="17.45" customHeight="1">
-      <c r="B102" s="33" t="s">
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+    </row>
+    <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-    </row>
-    <row r="109" spans="2:4" ht="17.25">
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+    </row>
+    <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
@@ -9809,112 +9865,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B113" s="30" t="s">
+    <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B114" s="30" t="s">
+    <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B115" s="30" t="s">
+    <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B116" s="30" t="s">
+    <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="F116" s="43" t="s">
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="F116" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-    </row>
-    <row r="117" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B117" s="30" t="s">
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+    </row>
+    <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="F117" s="33" t="s">
+      <c r="C117" s="32"/>
+      <c r="D117" s="33"/>
+      <c r="F117" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-    </row>
-    <row r="118" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B118" s="30" t="s">
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+    </row>
+    <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="F118" s="43" t="s">
+      <c r="C118" s="32"/>
+      <c r="D118" s="33"/>
+      <c r="F118" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-    </row>
-    <row r="119" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B119" s="30" t="s">
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+    </row>
+    <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="F119" s="43" t="s">
+      <c r="C119" s="32"/>
+      <c r="D119" s="33"/>
+      <c r="F119" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-    </row>
-    <row r="120" spans="2:9" ht="85.9" customHeight="1">
-      <c r="B120" s="30" t="s">
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+    </row>
+    <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="F120" s="33" t="s">
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
+      <c r="F120" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
-    </row>
-    <row r="121" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B121" s="30" t="s">
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+    </row>
+    <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="16" t="s">
         <v>22</v>
       </c>
@@ -9925,7 +9981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="15" t="s">
         <v>78</v>
       </c>
@@ -9936,7 +9992,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="17" t="s">
         <v>79</v>
       </c>
@@ -9947,7 +10003,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="15" t="s">
         <v>24</v>
       </c>
@@ -9958,7 +10014,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="15" t="s">
         <v>94</v>
       </c>
@@ -9969,7 +10025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="15" t="s">
         <v>75</v>
       </c>
@@ -9980,7 +10036,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="15" t="s">
         <v>27</v>
       </c>
@@ -9991,7 +10047,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="15" t="s">
         <v>97</v>
       </c>
@@ -10002,7 +10058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="15" t="s">
         <v>91</v>
       </c>
@@ -10013,7 +10069,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="15" t="s">
         <v>77</v>
       </c>
@@ -10026,22 +10082,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10056,18 +10108,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10080,11 +10136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
@@ -10092,12 +10148,12 @@
     <col min="20" max="20" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
@@ -10117,7 +10173,7 @@
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -10131,7 +10187,7 @@
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="21"/>
       <c r="D6" s="7"/>
@@ -10142,7 +10198,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="22"/>
       <c r="E7" s="8"/>
@@ -10152,7 +10208,7 @@
       <c r="L7" s="25"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="22"/>
       <c r="E8" s="8"/>
@@ -10162,7 +10218,7 @@
       <c r="L8" s="25"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="22"/>
       <c r="E9" s="8"/>
@@ -10172,7 +10228,7 @@
       <c r="L9" s="25"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="22"/>
       <c r="E10" s="8"/>
@@ -10182,7 +10238,7 @@
       <c r="L10" s="25"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="22"/>
       <c r="E11" s="8"/>
@@ -10204,7 +10260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="66">
+    <row r="12" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="22"/>
       <c r="E12" s="8"/>
@@ -10226,7 +10282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="66">
+    <row r="13" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="22"/>
       <c r="E13" s="8"/>
@@ -10248,7 +10304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="22"/>
       <c r="E14" s="8"/>
@@ -10258,7 +10314,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="22"/>
       <c r="E15" s="8"/>
@@ -10268,7 +10324,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="22"/>
       <c r="E16" s="8"/>
@@ -10278,7 +10334,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="22"/>
       <c r="E17" s="8"/>
@@ -10288,7 +10344,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="22"/>
       <c r="E18" s="8"/>
@@ -10298,7 +10354,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="22"/>
       <c r="E19" s="8"/>
@@ -10308,7 +10364,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="22"/>
       <c r="E20" s="8"/>
@@ -10318,7 +10374,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="22"/>
       <c r="E21" s="8"/>
@@ -10328,7 +10384,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="22"/>
       <c r="E22" s="8"/>
@@ -10338,7 +10394,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="22"/>
       <c r="E23" s="8"/>
@@ -10348,7 +10404,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="22"/>
       <c r="E24" s="8"/>
@@ -10358,7 +10414,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="22"/>
       <c r="E25" s="8"/>
@@ -10368,7 +10424,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="22"/>
       <c r="E26" s="8"/>
@@ -10378,7 +10434,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="22"/>
       <c r="E27" s="8"/>
@@ -10391,7 +10447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="22"/>
       <c r="E28" s="8"/>
@@ -10404,7 +10460,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="22"/>
       <c r="E29" s="8"/>
@@ -10414,7 +10470,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="22"/>
       <c r="E30" s="8"/>
@@ -10436,7 +10492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="66">
+    <row r="31" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="22"/>
       <c r="E31" s="8"/>
@@ -10458,7 +10514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="66">
+    <row r="32" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="22"/>
       <c r="E32" s="8"/>
@@ -10483,7 +10539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="22"/>
       <c r="E33" s="8"/>
@@ -10493,7 +10549,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="22"/>
       <c r="E34" s="8"/>
@@ -10506,7 +10562,7 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="22"/>
       <c r="E35" s="8"/>
@@ -10515,12 +10571,17 @@
       <c r="I35" s="8"/>
       <c r="L35" s="25"/>
       <c r="M35" s="8"/>
-      <c r="Q35" s="27"/>
+      <c r="O35" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="22"/>
       <c r="E36" s="8"/>
@@ -10529,8 +10590,14 @@
       <c r="I36" s="8"/>
       <c r="L36" s="25"/>
       <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="O36" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="22"/>
       <c r="E37" s="8"/>
@@ -10539,9 +10606,15 @@
       <c r="I37" s="8"/>
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
+      <c r="O37" t="s">
+        <v>164</v>
+      </c>
       <c r="P37" s="29"/>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="Q37" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="22"/>
       <c r="E38" s="8"/>
@@ -10550,9 +10623,15 @@
       <c r="I38" s="8"/>
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
+      <c r="O38" t="s">
+        <v>166</v>
+      </c>
       <c r="P38" s="29"/>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="Q38" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="22"/>
       <c r="E39" s="8"/>
@@ -10562,7 +10641,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="22"/>
       <c r="E40" s="8"/>
@@ -10572,7 +10651,7 @@
       <c r="L40" s="25"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="22"/>
       <c r="E41" s="8"/>
@@ -10582,7 +10661,7 @@
       <c r="L41" s="25"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="22"/>
       <c r="E42" s="8"/>
@@ -10592,7 +10671,7 @@
       <c r="L42" s="25"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="22"/>
       <c r="E43" s="8"/>
@@ -10602,7 +10681,7 @@
       <c r="L43" s="25"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="22"/>
       <c r="E44" s="8"/>
@@ -10612,7 +10691,7 @@
       <c r="L44" s="25"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="22"/>
       <c r="E45" s="8"/>
@@ -10622,7 +10701,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="22"/>
       <c r="E46" s="8"/>
@@ -10632,7 +10711,7 @@
       <c r="L46" s="25"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="22"/>
       <c r="E47" s="8"/>
@@ -10642,7 +10721,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="22"/>
       <c r="E48" s="8"/>
@@ -10652,7 +10731,7 @@
       <c r="L48" s="25"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="C49" s="22"/>
       <c r="E49" s="8"/>
@@ -10662,7 +10741,7 @@
       <c r="L49" s="25"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="22"/>
       <c r="E50" s="8"/>
@@ -10672,7 +10751,7 @@
       <c r="L50" s="25"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="22"/>
       <c r="E51" s="8"/>
@@ -10682,7 +10761,7 @@
       <c r="L51" s="25"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="22"/>
       <c r="E52" s="8"/>
@@ -10692,7 +10771,7 @@
       <c r="L52" s="25"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="22"/>
       <c r="E53" s="8"/>
@@ -10702,7 +10781,7 @@
       <c r="L53" s="25"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
       <c r="C54" s="22"/>
       <c r="E54" s="8"/>
@@ -10712,7 +10791,7 @@
       <c r="L54" s="25"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="22"/>
       <c r="E55" s="8"/>
@@ -10722,7 +10801,7 @@
       <c r="L55" s="25"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="22"/>
       <c r="E56" s="8"/>
@@ -10732,7 +10811,7 @@
       <c r="L56" s="25"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="22"/>
       <c r="E57" s="8"/>
@@ -10742,7 +10821,7 @@
       <c r="L57" s="25"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="22"/>
       <c r="E58" s="8"/>
@@ -10752,7 +10831,7 @@
       <c r="L58" s="25"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="22"/>
       <c r="E59" s="8"/>
@@ -10762,7 +10841,7 @@
       <c r="L59" s="25"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="22"/>
       <c r="E60" s="8"/>
@@ -10772,7 +10851,7 @@
       <c r="L60" s="25"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="22"/>
       <c r="E61" s="8"/>
@@ -10782,7 +10861,7 @@
       <c r="L61" s="25"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="22"/>
       <c r="E62" s="8"/>
@@ -10792,7 +10871,7 @@
       <c r="L62" s="25"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="22"/>
       <c r="E63" s="8"/>
@@ -10802,7 +10881,7 @@
       <c r="L63" s="25"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="22"/>
       <c r="E64" s="8"/>
@@ -10812,7 +10891,7 @@
       <c r="L64" s="25"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="22"/>
       <c r="E65" s="8"/>
@@ -10822,7 +10901,7 @@
       <c r="L65" s="25"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="22"/>
       <c r="E66" s="8"/>
@@ -10832,7 +10911,7 @@
       <c r="L66" s="25"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="22"/>
       <c r="E67" s="8"/>
@@ -10842,7 +10921,7 @@
       <c r="L67" s="25"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="22"/>
       <c r="E68" s="8"/>
@@ -10852,7 +10931,7 @@
       <c r="L68" s="25"/>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="22"/>
       <c r="E69" s="8"/>
@@ -10862,7 +10941,7 @@
       <c r="L69" s="25"/>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="22"/>
       <c r="E70" s="8"/>
@@ -10872,7 +10951,7 @@
       <c r="L70" s="25"/>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="22"/>
       <c r="E71" s="8"/>
@@ -10882,7 +10961,7 @@
       <c r="L71" s="25"/>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="22"/>
       <c r="E72" s="8"/>
@@ -10892,7 +10971,7 @@
       <c r="L72" s="25"/>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="22"/>
       <c r="E73" s="8"/>
@@ -10902,7 +10981,7 @@
       <c r="L73" s="25"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="22"/>
       <c r="E74" s="8"/>
@@ -10912,7 +10991,7 @@
       <c r="L74" s="25"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="22"/>
       <c r="E75" s="8"/>
@@ -10922,7 +11001,7 @@
       <c r="L75" s="25"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="22"/>
       <c r="E76" s="8"/>
@@ -10932,7 +11011,7 @@
       <c r="L76" s="25"/>
       <c r="M76" s="8"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="22"/>
       <c r="E77" s="8"/>
@@ -10942,7 +11021,7 @@
       <c r="L77" s="25"/>
       <c r="M77" s="8"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="22"/>
       <c r="E78" s="8"/>
@@ -10952,7 +11031,7 @@
       <c r="L78" s="25"/>
       <c r="M78" s="8"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="22"/>
       <c r="E79" s="8"/>
@@ -10962,7 +11041,7 @@
       <c r="L79" s="25"/>
       <c r="M79" s="8"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="22"/>
       <c r="E80" s="8"/>
@@ -10972,7 +11051,7 @@
       <c r="L80" s="25"/>
       <c r="M80" s="8"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="22"/>
       <c r="E81" s="8"/>
@@ -10982,7 +11061,7 @@
       <c r="L81" s="25"/>
       <c r="M81" s="8"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="22"/>
       <c r="E82" s="8"/>
@@ -10992,7 +11071,7 @@
       <c r="L82" s="25"/>
       <c r="M82" s="8"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="22"/>
       <c r="E83" s="8"/>
@@ -11002,7 +11081,7 @@
       <c r="L83" s="25"/>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="22"/>
       <c r="E84" s="8"/>
@@ -11012,7 +11091,7 @@
       <c r="L84" s="25"/>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="22"/>
       <c r="E85" s="8"/>
@@ -11022,7 +11101,7 @@
       <c r="L85" s="25"/>
       <c r="M85" s="8"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="22"/>
       <c r="E86" s="8"/>
@@ -11032,7 +11111,7 @@
       <c r="L86" s="25"/>
       <c r="M86" s="8"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="22"/>
       <c r="E87" s="8"/>
@@ -11042,7 +11121,7 @@
       <c r="L87" s="25"/>
       <c r="M87" s="8"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="22"/>
       <c r="E88" s="8"/>
@@ -11052,7 +11131,7 @@
       <c r="L88" s="25"/>
       <c r="M88" s="8"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="22"/>
       <c r="E89" s="8"/>
@@ -11062,7 +11141,7 @@
       <c r="L89" s="25"/>
       <c r="M89" s="8"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="22"/>
       <c r="E90" s="8"/>
@@ -11072,7 +11151,7 @@
       <c r="L90" s="25"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="22"/>
       <c r="E91" s="8"/>
@@ -11082,7 +11161,7 @@
       <c r="L91" s="25"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="22"/>
       <c r="E92" s="8"/>
@@ -11092,7 +11171,7 @@
       <c r="L92" s="25"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="22"/>
       <c r="E93" s="8"/>
@@ -11102,7 +11181,7 @@
       <c r="L93" s="25"/>
       <c r="M93" s="8"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="22"/>
       <c r="E94" s="8"/>
@@ -11112,7 +11191,7 @@
       <c r="L94" s="25"/>
       <c r="M94" s="8"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="22"/>
       <c r="E95" s="8"/>
@@ -11122,7 +11201,7 @@
       <c r="L95" s="25"/>
       <c r="M95" s="8"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="22"/>
       <c r="E96" s="8"/>
@@ -11132,7 +11211,7 @@
       <c r="L96" s="25"/>
       <c r="M96" s="8"/>
     </row>
-    <row r="97" spans="2:19">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="22"/>
       <c r="E97" s="8"/>
@@ -11142,7 +11221,7 @@
       <c r="L97" s="25"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="2:19">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="22"/>
       <c r="E98" s="8"/>
@@ -11152,7 +11231,7 @@
       <c r="L98" s="25"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="2:19">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="22"/>
       <c r="E99" s="8"/>
@@ -11162,7 +11241,7 @@
       <c r="L99" s="25"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="2:19">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="22"/>
       <c r="E100" s="8"/>
@@ -11172,7 +11251,7 @@
       <c r="L100" s="25"/>
       <c r="M100" s="8"/>
     </row>
-    <row r="101" spans="2:19">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="22"/>
       <c r="E101" s="8"/>
@@ -11182,7 +11261,7 @@
       <c r="L101" s="25"/>
       <c r="M101" s="8"/>
     </row>
-    <row r="102" spans="2:19">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="22"/>
       <c r="E102" s="8"/>
@@ -11195,7 +11274,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="2:19">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="22"/>
       <c r="E103" s="8"/>
@@ -11217,7 +11296,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="2:19" ht="66">
+    <row r="104" spans="2:19" ht="66" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="22"/>
       <c r="E104" s="8"/>
@@ -11236,7 +11315,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="2:19">
+    <row r="105" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="22"/>
       <c r="E105" s="8"/>
@@ -11246,7 +11325,7 @@
       <c r="L105" s="25"/>
       <c r="M105" s="8"/>
     </row>
-    <row r="106" spans="2:19">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="22"/>
       <c r="E106" s="8"/>
@@ -11256,7 +11335,7 @@
       <c r="L106" s="25"/>
       <c r="M106" s="8"/>
     </row>
-    <row r="107" spans="2:19">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="22"/>
       <c r="E107" s="8"/>
@@ -11266,7 +11345,7 @@
       <c r="L107" s="25"/>
       <c r="M107" s="8"/>
     </row>
-    <row r="108" spans="2:19">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="22"/>
       <c r="E108" s="8"/>
@@ -11276,7 +11355,7 @@
       <c r="L108" s="25"/>
       <c r="M108" s="8"/>
     </row>
-    <row r="109" spans="2:19">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="22"/>
       <c r="E109" s="8"/>
@@ -11286,7 +11365,7 @@
       <c r="L109" s="25"/>
       <c r="M109" s="8"/>
     </row>
-    <row r="110" spans="2:19">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="22"/>
       <c r="E110" s="8"/>
@@ -11299,7 +11378,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="2:19">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="22"/>
       <c r="E111" s="8"/>
@@ -11309,7 +11388,7 @@
       <c r="L111" s="25"/>
       <c r="M111" s="8"/>
     </row>
-    <row r="112" spans="2:19">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="22"/>
       <c r="E112" s="8"/>
@@ -11319,7 +11398,7 @@
       <c r="L112" s="25"/>
       <c r="M112" s="8"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="22"/>
       <c r="E113" s="8"/>
@@ -11329,7 +11408,7 @@
       <c r="L113" s="25"/>
       <c r="M113" s="8"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="22"/>
       <c r="E114" s="8"/>
@@ -11339,7 +11418,7 @@
       <c r="L114" s="25"/>
       <c r="M114" s="8"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="22"/>
       <c r="E115" s="8"/>
@@ -11349,7 +11428,7 @@
       <c r="L115" s="25"/>
       <c r="M115" s="8"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="22"/>
       <c r="E116" s="8"/>
@@ -11359,7 +11438,7 @@
       <c r="L116" s="25"/>
       <c r="M116" s="8"/>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="22"/>
       <c r="E117" s="8"/>
@@ -11369,7 +11448,7 @@
       <c r="L117" s="25"/>
       <c r="M117" s="8"/>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="22"/>
       <c r="E118" s="8"/>
@@ -11379,7 +11458,7 @@
       <c r="L118" s="25"/>
       <c r="M118" s="8"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="22"/>
       <c r="E119" s="8"/>
@@ -11389,7 +11468,7 @@
       <c r="L119" s="25"/>
       <c r="M119" s="8"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="22"/>
       <c r="E120" s="8"/>
@@ -11399,7 +11478,7 @@
       <c r="L120" s="25"/>
       <c r="M120" s="8"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="22"/>
       <c r="E121" s="8"/>
@@ -11409,7 +11488,7 @@
       <c r="L121" s="25"/>
       <c r="M121" s="8"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="22"/>
       <c r="E122" s="8"/>
@@ -11419,7 +11498,7 @@
       <c r="L122" s="25"/>
       <c r="M122" s="8"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="22"/>
       <c r="E123" s="8"/>
@@ -11429,7 +11508,7 @@
       <c r="L123" s="25"/>
       <c r="M123" s="8"/>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="22"/>
       <c r="E124" s="8"/>
@@ -11439,7 +11518,7 @@
       <c r="L124" s="25"/>
       <c r="M124" s="8"/>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="22"/>
       <c r="E125" s="8"/>
@@ -11449,7 +11528,7 @@
       <c r="L125" s="25"/>
       <c r="M125" s="8"/>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="22"/>
       <c r="E126" s="8"/>
@@ -11459,7 +11538,7 @@
       <c r="L126" s="25"/>
       <c r="M126" s="8"/>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="22"/>
       <c r="E127" s="8"/>
@@ -11469,7 +11548,7 @@
       <c r="L127" s="25"/>
       <c r="M127" s="8"/>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="22"/>
       <c r="E128" s="8"/>
@@ -11479,7 +11558,7 @@
       <c r="L128" s="25"/>
       <c r="M128" s="8"/>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="22"/>
       <c r="E129" s="8"/>
@@ -11489,7 +11568,7 @@
       <c r="L129" s="25"/>
       <c r="M129" s="8"/>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="22"/>
       <c r="E130" s="8"/>
@@ -11499,7 +11578,7 @@
       <c r="L130" s="25"/>
       <c r="M130" s="8"/>
     </row>
-    <row r="131" spans="2:13">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="22"/>
       <c r="E131" s="8"/>
@@ -11509,7 +11588,7 @@
       <c r="L131" s="25"/>
       <c r="M131" s="8"/>
     </row>
-    <row r="132" spans="2:13">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="22"/>
       <c r="E132" s="8"/>
@@ -11519,7 +11598,7 @@
       <c r="L132" s="25"/>
       <c r="M132" s="8"/>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="22"/>
       <c r="E133" s="8"/>
@@ -11529,7 +11608,7 @@
       <c r="L133" s="25"/>
       <c r="M133" s="8"/>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="22"/>
       <c r="E134" s="8"/>
@@ -11539,7 +11618,7 @@
       <c r="L134" s="25"/>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" spans="2:13">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="22"/>
       <c r="E135" s="8"/>
@@ -11549,7 +11628,7 @@
       <c r="L135" s="25"/>
       <c r="M135" s="8"/>
     </row>
-    <row r="136" spans="2:13">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="22"/>
       <c r="E136" s="8"/>
@@ -11559,7 +11638,7 @@
       <c r="L136" s="25"/>
       <c r="M136" s="8"/>
     </row>
-    <row r="137" spans="2:13">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="22"/>
       <c r="E137" s="8"/>
@@ -11569,7 +11648,7 @@
       <c r="L137" s="25"/>
       <c r="M137" s="8"/>
     </row>
-    <row r="138" spans="2:13">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="22"/>
       <c r="E138" s="8"/>
@@ -11579,7 +11658,7 @@
       <c r="L138" s="25"/>
       <c r="M138" s="8"/>
     </row>
-    <row r="139" spans="2:13">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="22"/>
       <c r="E139" s="8"/>
@@ -11589,7 +11668,7 @@
       <c r="L139" s="25"/>
       <c r="M139" s="8"/>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="22"/>
       <c r="E140" s="8"/>
@@ -11599,7 +11678,7 @@
       <c r="L140" s="25"/>
       <c r="M140" s="8"/>
     </row>
-    <row r="141" spans="2:13">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="22"/>
       <c r="E141" s="8"/>
@@ -11609,7 +11688,7 @@
       <c r="L141" s="25"/>
       <c r="M141" s="8"/>
     </row>
-    <row r="142" spans="2:13">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="22"/>
       <c r="E142" s="8"/>
@@ -11619,7 +11698,7 @@
       <c r="L142" s="25"/>
       <c r="M142" s="8"/>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="22"/>
       <c r="E143" s="8"/>
@@ -11629,7 +11708,7 @@
       <c r="L143" s="25"/>
       <c r="M143" s="8"/>
     </row>
-    <row r="144" spans="2:13">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="22"/>
       <c r="E144" s="8"/>
@@ -11639,7 +11718,7 @@
       <c r="L144" s="25"/>
       <c r="M144" s="8"/>
     </row>
-    <row r="145" spans="2:13">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="22"/>
       <c r="E145" s="8"/>
@@ -11649,7 +11728,7 @@
       <c r="L145" s="25"/>
       <c r="M145" s="8"/>
     </row>
-    <row r="146" spans="2:13">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="22"/>
       <c r="E146" s="8"/>
@@ -11659,7 +11738,7 @@
       <c r="L146" s="25"/>
       <c r="M146" s="8"/>
     </row>
-    <row r="147" spans="2:13">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="22"/>
       <c r="E147" s="8"/>
@@ -11669,7 +11748,7 @@
       <c r="L147" s="25"/>
       <c r="M147" s="8"/>
     </row>
-    <row r="148" spans="2:13">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="22"/>
       <c r="E148" s="8"/>
@@ -11679,7 +11758,7 @@
       <c r="L148" s="25"/>
       <c r="M148" s="8"/>
     </row>
-    <row r="149" spans="2:13">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="22"/>
       <c r="E149" s="8"/>
@@ -11689,7 +11768,7 @@
       <c r="L149" s="25"/>
       <c r="M149" s="8"/>
     </row>
-    <row r="150" spans="2:13">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="10"/>
       <c r="C150" s="23"/>
       <c r="D150" s="11"/>
@@ -11724,18 +11803,18 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>142</v>
       </c>
@@ -11770,7 +11849,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>157</v>
       </c>
@@ -11805,12 +11884,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>142</v>
       </c>
@@ -11833,7 +11912,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>157</v>
       </c>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D5A5A6-1C0D-42CD-B286-9955A5C48347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8CCD2-148C-4545-99EE-1EECB00B8487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="510" windowWidth="21600" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="510" windowWidth="27180" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -1488,9 +1488,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1502,21 +1499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1538,6 +1520,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9344,41 +9344,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -9421,95 +9421,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -9517,21 +9517,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -9566,121 +9566,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-      <c r="F75" s="34" t="s">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="F76" s="35" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="F76" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="F77" s="34" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="F77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
-      <c r="F78" s="35" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="F79" s="35" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="F79" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
-      <c r="F80" s="34" t="s">
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
-      <c r="F81" s="34" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="F81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
-      <c r="F82" s="34" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
-      <c r="F83" s="34" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -9798,58 +9798,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -9866,106 +9866,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="33"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="F116" s="35" t="s">
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="F116" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="F117" s="34" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="33"/>
-      <c r="F118" s="35" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="F118" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="33"/>
-      <c r="F119" s="35" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="F119" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
-      <c r="F120" s="34" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="F120" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -10082,18 +10082,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10108,22 +10112,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10136,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35:Q38"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11800,7 +11800,7 @@
   <dimension ref="B3:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8CCD2-148C-4545-99EE-1EECB00B8487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD491F-177F-4D58-9AED-46E785BBF94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="510" windowWidth="27180" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -1488,6 +1488,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1499,6 +1502,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1520,24 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8167,7 +8167,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>161632</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8183,7 +8183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4906840" y="21453231"/>
-          <a:ext cx="2571018" cy="535305"/>
+          <a:ext cx="2571018" cy="564173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9344,41 +9344,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -9421,95 +9421,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -9517,21 +9517,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -9566,121 +9566,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="33" t="s">
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="F75" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
-      <c r="F76" s="43" t="s">
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+      <c r="F76" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="F77" s="33" t="s">
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="F77" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="F78" s="43" t="s">
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="F78" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="F79" s="43" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="F79" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="F80" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
+      <c r="F81" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="F82" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="F83" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -9798,58 +9798,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -9866,106 +9866,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="F116" s="43" t="s">
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="F116" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="F117" s="33" t="s">
+      <c r="C117" s="32"/>
+      <c r="D117" s="33"/>
+      <c r="F117" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="F118" s="43" t="s">
+      <c r="C118" s="32"/>
+      <c r="D118" s="33"/>
+      <c r="F118" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="F119" s="43" t="s">
+      <c r="C119" s="32"/>
+      <c r="D119" s="33"/>
+      <c r="F119" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="F120" s="33" t="s">
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
+      <c r="F120" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -10082,22 +10082,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10112,18 +10108,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10136,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="D99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD491F-177F-4D58-9AED-46E785BBF94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872FCA2E-EF50-425C-A78C-D77B362B9C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,9 +1488,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1502,21 +1499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1538,6 +1520,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1933,7 +1933,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>초음파 센서 물체 감지</a:t>
+            <a:t>적외선 센서 물체 감지</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -3454,7 +3454,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>초음파 센서 물체 감지 및</a:t>
+            <a:t>적외선 센서 물체 감지 및</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -6258,7 +6258,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>초음파 센서 물체 감지 및</a:t>
+            <a:t>적외선 센서 물체 감지 및</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -7079,7 +7079,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>초음파 센서 물체 감지 </a:t>
+            <a:t>적외선 센서 물체 감지 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800">
@@ -8441,7 +8441,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>초음파 센서 물체 감지 </a:t>
+            <a:t>적외선 센서 물체 감지 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800">
@@ -9344,41 +9344,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -9421,95 +9421,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -9517,21 +9517,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -9566,121 +9566,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-      <c r="F75" s="34" t="s">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="F76" s="35" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="F76" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="F77" s="34" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="F77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
-      <c r="F78" s="35" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="F79" s="35" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="F79" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
-      <c r="F80" s="34" t="s">
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
-      <c r="F81" s="34" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="F81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
-      <c r="F82" s="34" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
-      <c r="F83" s="34" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -9798,58 +9798,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -9866,106 +9866,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="33"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="F116" s="35" t="s">
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="F116" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="F117" s="34" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="33"/>
-      <c r="F118" s="35" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="F118" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="33"/>
-      <c r="F119" s="35" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="F119" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
-      <c r="F120" s="34" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="F120" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -10082,18 +10082,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10108,22 +10112,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10136,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P107" sqref="P107"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872FCA2E-EF50-425C-A78C-D77B362B9C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9BDBA-6B9F-40ED-8A5F-627AA7163D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,6 +1488,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1499,6 +1502,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1520,24 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9344,41 +9344,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -9421,95 +9421,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -9517,21 +9517,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -9566,121 +9566,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="33" t="s">
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="F75" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
-      <c r="F76" s="43" t="s">
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+      <c r="F76" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="F77" s="33" t="s">
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="F77" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="F78" s="43" t="s">
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="F78" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="F79" s="43" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="F79" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="F80" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
+      <c r="F81" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="F82" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="F83" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -9798,58 +9798,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -9866,106 +9866,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="F116" s="43" t="s">
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="F116" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="F117" s="33" t="s">
+      <c r="C117" s="32"/>
+      <c r="D117" s="33"/>
+      <c r="F117" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="F118" s="43" t="s">
+      <c r="C118" s="32"/>
+      <c r="D118" s="33"/>
+      <c r="F118" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="F119" s="43" t="s">
+      <c r="C119" s="32"/>
+      <c r="D119" s="33"/>
+      <c r="F119" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="F120" s="33" t="s">
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
+      <c r="F120" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -10082,22 +10082,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10112,18 +10108,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10136,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9BDBA-6B9F-40ED-8A5F-627AA7163D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFE8004-5FC6-4195-9121-866CDD1E4AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="170">
   <si>
     <t>서버</t>
   </si>
@@ -812,20 +812,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sensorName:detect
-sensorState:on</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/pi/start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pi/result</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -850,24 +841,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "msg":"pass",
-  "statusCode":200
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/pi/sensor/{id}
 {id} : 0 ~ 4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//왼쪽 다이어그램에서는 사용안함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pi/process/{id}
-{id} : 1 ~ 4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1003,6 +982,44 @@
   </si>
   <si>
     <t>metalWiring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/process/{id}
+{id} : 1 ~ 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/process/{id}
+{id} : 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "msg":"fail",
+  "statusCode":200
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "msg":"left",
+  "statusCode":200
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "msg":"rigtt",
+  "statusCode":200
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorName:detect
+sensorState:on
+or
+sensorState:off</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1488,9 +1505,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1502,21 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1538,6 +1537,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3352,8 +3369,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>63181</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>748981</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>106021</xdr:rowOff>
     </xdr:to>
@@ -8385,8 +8402,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8402,7 +8419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7576038" y="25537990"/>
-          <a:ext cx="1390797" cy="692394"/>
+          <a:ext cx="1390797" cy="780318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8474,6 +8491,22 @@
               </a:solidFill>
             </a:rPr>
             <a:t>감지 가 안될 때</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>전체 공정 종료 타이밍 전송 목적</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800">
@@ -9344,41 +9377,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -9421,95 +9454,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -9517,21 +9550,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -9566,121 +9599,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-      <c r="F75" s="34" t="s">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="F76" s="35" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="F76" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="F77" s="34" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="F77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
-      <c r="F78" s="35" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="F79" s="35" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="F79" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
-      <c r="F80" s="34" t="s">
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
-      <c r="F81" s="34" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="F81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
-      <c r="F82" s="34" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
-      <c r="F83" s="34" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -9798,58 +9831,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -9866,106 +9899,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="33"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="F116" s="35" t="s">
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="F116" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="F117" s="34" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="33"/>
-      <c r="F118" s="35" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="F118" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="33"/>
-      <c r="F119" s="35" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="F119" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
-      <c r="F120" s="34" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="F120" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -10082,18 +10115,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10108,22 +10145,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10134,10 +10167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:T150"/>
+  <dimension ref="B2:U150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10146,6 +10179,7 @@
     <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.625" customWidth="1"/>
     <col min="20" max="20" width="19.25" customWidth="1"/>
+    <col min="21" max="21" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
@@ -10273,13 +10307,13 @@
         <v>121</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="66" x14ac:dyDescent="0.3">
@@ -10292,16 +10326,16 @@
       <c r="L13" s="25"/>
       <c r="M13" s="8"/>
       <c r="P13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="S13" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="T13" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
@@ -10444,7 +10478,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
@@ -10457,7 +10491,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="8"/>
       <c r="O28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
@@ -10505,13 +10539,13 @@
         <v>121</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="66" x14ac:dyDescent="0.3">
@@ -10527,16 +10561,16 @@
         <v>121</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="T32" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
@@ -10572,10 +10606,10 @@
       <c r="L35" s="25"/>
       <c r="M35" s="8"/>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
@@ -10591,10 +10625,10 @@
       <c r="L36" s="25"/>
       <c r="M36" s="8"/>
       <c r="O36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
@@ -10607,11 +10641,11 @@
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
       <c r="O37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P37" s="29"/>
       <c r="Q37" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
@@ -10624,11 +10658,11 @@
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
       <c r="O38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P38" s="29"/>
       <c r="Q38" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
@@ -11211,7 +11245,7 @@
       <c r="L96" s="25"/>
       <c r="M96" s="8"/>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="22"/>
       <c r="E97" s="8"/>
@@ -11221,7 +11255,7 @@
       <c r="L97" s="25"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="22"/>
       <c r="E98" s="8"/>
@@ -11231,7 +11265,7 @@
       <c r="L98" s="25"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="22"/>
       <c r="E99" s="8"/>
@@ -11241,7 +11275,7 @@
       <c r="L99" s="25"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="22"/>
       <c r="E100" s="8"/>
@@ -11251,7 +11285,7 @@
       <c r="L100" s="25"/>
       <c r="M100" s="8"/>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="22"/>
       <c r="E101" s="8"/>
@@ -11261,7 +11295,7 @@
       <c r="L101" s="25"/>
       <c r="M101" s="8"/>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="22"/>
       <c r="E102" s="8"/>
@@ -11271,10 +11305,10 @@
       <c r="L102" s="25"/>
       <c r="M102" s="8"/>
       <c r="P102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="22"/>
       <c r="E103" s="8"/>
@@ -11296,7 +11330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="2:19" ht="66" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:21" ht="66" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="22"/>
       <c r="E104" s="8"/>
@@ -11306,16 +11340,22 @@
       <c r="L104" s="25"/>
       <c r="M104" s="8"/>
       <c r="P104" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="Q104" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="S104" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="T104" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="U104" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="22"/>
       <c r="E105" s="8"/>
@@ -11325,7 +11365,7 @@
       <c r="L105" s="25"/>
       <c r="M105" s="8"/>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="22"/>
       <c r="E106" s="8"/>
@@ -11335,7 +11375,7 @@
       <c r="L106" s="25"/>
       <c r="M106" s="8"/>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="22"/>
       <c r="E107" s="8"/>
@@ -11345,7 +11385,7 @@
       <c r="L107" s="25"/>
       <c r="M107" s="8"/>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="22"/>
       <c r="E108" s="8"/>
@@ -11355,7 +11395,7 @@
       <c r="L108" s="25"/>
       <c r="M108" s="8"/>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="22"/>
       <c r="E109" s="8"/>
@@ -11365,7 +11405,7 @@
       <c r="L109" s="25"/>
       <c r="M109" s="8"/>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="22"/>
       <c r="E110" s="8"/>
@@ -11375,10 +11415,10 @@
       <c r="L110" s="25"/>
       <c r="M110" s="8"/>
       <c r="P110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="22"/>
       <c r="E111" s="8"/>
@@ -11388,7 +11428,7 @@
       <c r="L111" s="25"/>
       <c r="M111" s="8"/>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="22"/>
       <c r="E112" s="8"/>
@@ -11811,128 +11851,128 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>143</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>144</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>145</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>146</v>
-      </c>
-      <c r="I4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFE8004-5FC6-4195-9121-866CDD1E4AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC6CD68-477C-48E5-970F-08AB4E8DE93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
   <si>
     <t>서버</t>
   </si>
@@ -841,11 +841,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/pi/sensor/{id}
-{id} : 0 ~ 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>//왼쪽 다이어그램에서는 사용안함</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1009,17 +1004,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "msg":"rigtt",
-  "statusCode":200
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>sensorName:detect
 sensorState:on
 or
 sensorState:off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> GET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/process/{id}
+{id} : 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "msg":"right",
+  "statusCode":200
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/sensor/{id}
+{id} : 1 ~ 6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1505,6 +1514,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,6 +1528,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1537,24 +1564,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6386,13 +6395,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>610333</xdr:rowOff>
+      <xdr:rowOff>610332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>29455</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6407,8 +6416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7585563" y="24987006"/>
-          <a:ext cx="1369842" cy="466872"/>
+          <a:off x="7553325" y="25337232"/>
+          <a:ext cx="1363980" cy="1066067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6448,6 +6457,70 @@
               </a:solidFill>
             </a:rPr>
             <a:t>컨베이어벨트 구동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모터 구동 시간 동안</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -8394,16 +8467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>688730</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>113567</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2930</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>75467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8418,8 +8491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7576038" y="25537990"/>
-          <a:ext cx="1390797" cy="780318"/>
+          <a:off x="7546730" y="26478767"/>
+          <a:ext cx="1382005" cy="768595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8458,48 +8531,24 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>적외선 센서 물체 감지 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:t>모터</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>물체가 다시</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>감지 가 안될 때</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
+            <a:t> 구동 시간 이후</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
@@ -8530,14 +8579,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>164412</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>145362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>146535</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>127485</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8552,8 +8601,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4828442" y="25588835"/>
-          <a:ext cx="2754923" cy="194604"/>
+          <a:off x="4807927" y="26548662"/>
+          <a:ext cx="2743200" cy="191673"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8583,14 +8632,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>83527</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>623664</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>166464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>540727</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>129537</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>91437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8605,8 +8654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4904642" y="25000337"/>
-          <a:ext cx="2523393" cy="553623"/>
+          <a:off x="4884127" y="25941114"/>
+          <a:ext cx="2514600" cy="553623"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8718,14 +8767,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>14797</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>205297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>630115</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>139209</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>120159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8740,8 +8789,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4849690" y="26289143"/>
-          <a:ext cx="2667733" cy="124412"/>
+          <a:off x="4829175" y="27237247"/>
+          <a:ext cx="2658940" cy="124412"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8771,14 +8820,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>93052</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>170860</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>151810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>550252</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>26959</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>7909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8793,8 +8842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914167" y="26445206"/>
-          <a:ext cx="2523393" cy="281061"/>
+          <a:off x="4893652" y="27393310"/>
+          <a:ext cx="2514600" cy="275199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8897,14 +8946,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>672172</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>160309</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>141259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>664552</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>3074</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>193574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8919,8 +8968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="25797213"/>
-          <a:ext cx="1369842" cy="480207"/>
+          <a:off x="3415372" y="26754109"/>
+          <a:ext cx="1363980" cy="471415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9377,41 +9426,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -9454,95 +9503,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -9550,21 +9599,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -9599,121 +9648,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="33" t="s">
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="F75" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
-      <c r="F76" s="43" t="s">
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+      <c r="F76" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="F77" s="33" t="s">
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="F77" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="F78" s="43" t="s">
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="F78" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="F79" s="43" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="F79" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="F80" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
+      <c r="F81" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="F82" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="F83" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -9831,58 +9880,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -9899,106 +9948,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="F116" s="43" t="s">
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="F116" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="F117" s="33" t="s">
+      <c r="C117" s="32"/>
+      <c r="D117" s="33"/>
+      <c r="F117" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="F118" s="43" t="s">
+      <c r="C118" s="32"/>
+      <c r="D118" s="33"/>
+      <c r="F118" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="F119" s="43" t="s">
+      <c r="C119" s="32"/>
+      <c r="D119" s="33"/>
+      <c r="F119" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="F120" s="33" t="s">
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
+      <c r="F120" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -10115,22 +10164,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10145,18 +10190,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10169,8 +10218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:U150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10307,10 +10356,10 @@
         <v>121</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S12" s="27" t="s">
         <v>128</v>
@@ -10478,7 +10527,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
@@ -10491,7 +10540,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="8"/>
       <c r="O28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
@@ -10539,10 +10588,10 @@
         <v>121</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S31" s="27" t="s">
         <v>128</v>
@@ -10561,19 +10610,19 @@
         <v>121</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T32" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="22"/>
       <c r="E33" s="8"/>
@@ -10582,6 +10631,18 @@
       <c r="I33" s="8"/>
       <c r="L33" s="25"/>
       <c r="M33" s="8"/>
+      <c r="P33" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="S33" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
@@ -10606,10 +10667,10 @@
       <c r="L35" s="25"/>
       <c r="M35" s="8"/>
       <c r="O35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
@@ -10625,10 +10686,10 @@
       <c r="L36" s="25"/>
       <c r="M36" s="8"/>
       <c r="O36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
@@ -10641,11 +10702,11 @@
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
       <c r="O37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P37" s="29"/>
       <c r="Q37" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
@@ -10658,11 +10719,11 @@
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
       <c r="O38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P38" s="29"/>
       <c r="Q38" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
@@ -11305,7 +11366,7 @@
       <c r="L102" s="25"/>
       <c r="M102" s="8"/>
       <c r="P102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.3">
@@ -11340,19 +11401,22 @@
       <c r="L104" s="25"/>
       <c r="M104" s="8"/>
       <c r="P104" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q104" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R104" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="S104" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="T104" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="U104" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="S104" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="T104" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="U104" s="27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.3">
@@ -11415,7 +11479,7 @@
       <c r="L110" s="25"/>
       <c r="M110" s="8"/>
       <c r="P110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="2:21" x14ac:dyDescent="0.3">
@@ -11851,128 +11915,128 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>139</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>140</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>141</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>142</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>143</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>144</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>145</v>
-      </c>
-      <c r="L4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" t="s">
-        <v>153</v>
-      </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>139</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>140</v>
       </c>
-      <c r="G10" t="s">
-        <v>141</v>
-      </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" t="s">
         <v>153</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC6CD68-477C-48E5-970F-08AB4E8DE93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989BC7A-B355-48AA-8EF9-701CD226C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,27 +956,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>photo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etching</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3차 공정 이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ionImplantation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4차 공정 이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>metalWiring</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1004,13 +988,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sensorName:detect
-sensorState:on
-or
-sensorState:off</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> GET</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1029,6 +1006,29 @@
   <si>
     <t>/pi/sensor/{id}
 {id} : 1 ~ 6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorName:detect
+sensorState:on
+sensorState:off
+sensorState:finalEnd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>photolithography</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etching</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>euvLithography</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8557,19 +8557,6 @@
             </a:rPr>
             <a:t>전체 공정 종료 타이밍 전송 목적</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10218,8 +10205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:U150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10356,7 +10343,7 @@
         <v>121</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>167</v>
@@ -10588,7 +10575,7 @@
         <v>121</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="R31" s="27" t="s">
         <v>131</v>
@@ -10610,7 +10597,7 @@
         <v>121</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="R32" s="27" t="s">
         <v>132</v>
@@ -10632,10 +10619,10 @@
       <c r="L33" s="25"/>
       <c r="M33" s="8"/>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S33" s="27" t="s">
         <v>154</v>
@@ -10670,7 +10657,7 @@
         <v>155</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
@@ -10689,7 +10676,7 @@
         <v>156</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
@@ -10702,11 +10689,11 @@
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
       <c r="O37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P37" s="29"/>
       <c r="Q37" s="27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
@@ -10719,11 +10706,11 @@
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
       <c r="O38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P38" s="29"/>
       <c r="Q38" s="27" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
@@ -11404,19 +11391,19 @@
         <v>121</v>
       </c>
       <c r="Q104" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R104" s="27" t="s">
         <v>132</v>
       </c>
       <c r="S104" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="T104" s="27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="U104" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.3">

--- a/통신 프로토콜/Server 프로토콜 API 예시.xlsx
+++ b/통신 프로토콜/Server 프로토콜 API 예시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989BC7A-B355-48AA-8EF9-701CD226C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2FE361-1BD3-470E-983A-4C38ACC243F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="173">
   <si>
     <t>서버</t>
   </si>
@@ -845,12 +845,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>processCmd:start
-processName:height
-processValue:0.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>processCmd:end
 processName:height
 processValue:12.12</t>
@@ -1004,11 +998,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/pi/sensor/{id}
-{id} : 1 ~ 6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>sensorName:detect
 sensorState:on
 sensorState:off
@@ -1029,6 +1018,25 @@
   </si>
   <si>
     <t>euvLithography</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>processCmd:start
+processName
+id1: photolithography, id2: etching, id3:eds
+processValue:0.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>processCmd:end
+processName
+id1: photolithography, id2: etching, id3:eds
+processValue: @sensor value@</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pi/sensor/{id}
+{id} : 1 ~ 4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1514,9 +1522,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,21 +1533,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1564,6 +1554,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1954,6 +1962,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -2026,16 +2050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2050,8 +2074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="6145531"/>
-          <a:ext cx="1363980" cy="483870"/>
+          <a:off x="3436620" y="5526406"/>
+          <a:ext cx="1363980" cy="626744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2123,6 +2147,25 @@
               </a:solidFill>
             </a:rPr>
             <a:t>저장 완료</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작 버튼 활성화 및 누름</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
             <a:solidFill>
@@ -2406,6 +2449,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PI1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3065,7 +3124,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2199</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3081,8 +3140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3453472" y="2145763"/>
-          <a:ext cx="1369842" cy="4053547"/>
+          <a:off x="3438818" y="2116455"/>
+          <a:ext cx="1363981" cy="3398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3378,8 +3437,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>748981</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>501331</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>106021</xdr:rowOff>
     </xdr:to>
@@ -3475,6 +3534,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3582,7 +3649,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1~3 </a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
@@ -3761,7 +3828,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Route: pi/process/{id}/{processCmd:start, processName:height, processValue:0.0}</a:t>
+            <a:t>Route: pi/process/{id}/{processCmd:start, processName:photolithography, processValue:0.0}</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
             <a:solidFill>
@@ -4373,8 +4440,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>processValue:12.12</a:t>
-          </a:r>
+            <a:t>processValue:?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
               <a:solidFill>
@@ -4480,8 +4566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3443947" y="12997962"/>
-          <a:ext cx="1369841" cy="1384788"/>
+          <a:off x="3429293" y="13506450"/>
+          <a:ext cx="1366910" cy="1367204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4732,8 +4818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815253" y="14372493"/>
-          <a:ext cx="2675793" cy="212480"/>
+          <a:off x="4797668" y="14863397"/>
+          <a:ext cx="2664070" cy="209549"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4785,8 +4871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4862878" y="14670698"/>
-          <a:ext cx="2523393" cy="281061"/>
+          <a:off x="4842363" y="15155740"/>
+          <a:ext cx="2514600" cy="278131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4887,8 +4973,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>688730</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2930</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>174527</xdr:rowOff>
     </xdr:from>
@@ -4911,8 +4997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7576038" y="14564604"/>
-          <a:ext cx="1366911" cy="468777"/>
+          <a:off x="7546730" y="15052577"/>
+          <a:ext cx="1361050" cy="459985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6166,8 +6252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7595088" y="15108116"/>
-          <a:ext cx="1369842" cy="466872"/>
+          <a:off x="7562850" y="15587297"/>
+          <a:ext cx="1363980" cy="461010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6201,12 +6287,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PI1 </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>컨베이어벨트 구동</a:t>
+            <a:t>컨베이어벨트 구동 </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -6294,6 +6388,14 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PI 1</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
@@ -7051,8 +7153,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="8835389"/>
-          <a:ext cx="1369842" cy="480207"/>
+          <a:off x="3415372" y="8762120"/>
+          <a:ext cx="1363980" cy="483138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7105,8 +7207,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>688730</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2930</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>172182</xdr:rowOff>
     </xdr:from>
@@ -7129,8 +7231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7576038" y="15624663"/>
-          <a:ext cx="1390797" cy="692394"/>
+          <a:off x="7546730" y="16097982"/>
+          <a:ext cx="1382005" cy="680671"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8996,6 +9098,103 @@
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면전환</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6523EAE5-C0CD-4C89-8305-B83D688CB303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="6162674"/>
+          <a:ext cx="1363980" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>전체 공정 시작 시간 저장</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작 버튼 비활성화</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
             <a:solidFill>
@@ -9413,41 +9612,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -9490,95 +9689,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -9586,21 +9785,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -9635,121 +9834,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-      <c r="F75" s="34" t="s">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="F76" s="35" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="F76" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="F77" s="34" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="F77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
-      <c r="F78" s="35" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="F79" s="35" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="F79" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
-      <c r="F80" s="34" t="s">
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
-      <c r="F81" s="34" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="F81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
-      <c r="F82" s="34" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
-      <c r="F83" s="34" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -9867,58 +10066,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -9935,106 +10134,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="33"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="F116" s="35" t="s">
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="F116" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="F117" s="34" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="33"/>
-      <c r="F118" s="35" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="F118" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="33"/>
-      <c r="F119" s="35" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="F119" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
-      <c r="F120" s="34" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="F120" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -10151,18 +10350,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10177,22 +10380,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10205,14 +10404,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:U150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.625" customWidth="1"/>
     <col min="20" max="20" width="19.25" customWidth="1"/>
     <col min="21" max="21" width="16.75" customWidth="1"/>
@@ -10343,10 +10542,10 @@
         <v>121</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S12" s="27" t="s">
         <v>128</v>
@@ -10393,6 +10592,12 @@
       <c r="I15" s="8"/>
       <c r="L15" s="25"/>
       <c r="M15" s="8"/>
+      <c r="O15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
@@ -10403,6 +10608,12 @@
       <c r="I16" s="8"/>
       <c r="L16" s="25"/>
       <c r="M16" s="8"/>
+      <c r="O16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
@@ -10413,6 +10624,12 @@
       <c r="I17" s="8"/>
       <c r="L17" s="25"/>
       <c r="M17" s="8"/>
+      <c r="O17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
@@ -10423,6 +10640,12 @@
       <c r="I18" s="8"/>
       <c r="L18" s="25"/>
       <c r="M18" s="8"/>
+      <c r="O18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
@@ -10514,7 +10737,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
@@ -10527,7 +10750,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="8"/>
       <c r="O28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
@@ -10575,10 +10798,10 @@
         <v>121</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="S31" s="27" t="s">
         <v>128</v>
@@ -10597,13 +10820,13 @@
         <v>121</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T32" s="27" t="s">
         <v>129</v>
@@ -10619,13 +10842,13 @@
       <c r="L33" s="25"/>
       <c r="M33" s="8"/>
       <c r="P33" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q33" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="Q33" s="27" t="s">
-        <v>164</v>
-      </c>
       <c r="S33" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T33" s="27" t="s">
         <v>129</v>
@@ -10653,12 +10876,6 @@
       <c r="I35" s="8"/>
       <c r="L35" s="25"/>
       <c r="M35" s="8"/>
-      <c r="O35" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>168</v>
-      </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
@@ -10672,12 +10889,6 @@
       <c r="I36" s="8"/>
       <c r="L36" s="25"/>
       <c r="M36" s="8"/>
-      <c r="O36" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
@@ -10688,13 +10899,7 @@
       <c r="I37" s="8"/>
       <c r="L37" s="25"/>
       <c r="M37" s="8"/>
-      <c r="O37" t="s">
-        <v>157</v>
-      </c>
       <c r="P37" s="29"/>
-      <c r="Q37" s="27" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
@@ -10705,13 +10910,7 @@
       <c r="I38" s="8"/>
       <c r="L38" s="25"/>
       <c r="M38" s="8"/>
-      <c r="O38" t="s">
-        <v>158</v>
-      </c>
       <c r="P38" s="29"/>
-      <c r="Q38" s="27" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
@@ -11391,19 +11590,19 @@
         <v>121</v>
       </c>
       <c r="Q104" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="R104" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="S104" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T104" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="U104" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="R104" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="S104" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="T104" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="U104" s="27" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.3">
@@ -11466,7 +11665,7 @@
       <c r="L110" s="25"/>
       <c r="M110" s="8"/>
       <c r="P110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="2:21" x14ac:dyDescent="0.3">
@@ -11902,128 +12101,128 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>139</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>140</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>141</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>142</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>143</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>144</v>
-      </c>
-      <c r="L4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
         <v>151</v>
       </c>
-      <c r="D6" t="s">
-        <v>152</v>
-      </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>138</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>139</v>
       </c>
-      <c r="G10" t="s">
-        <v>140</v>
-      </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
         <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
